--- a/src/attributions/attributions_ig_traj_165.xlsx
+++ b/src/attributions/attributions_ig_traj_165.xlsx
@@ -1004,19 +1004,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1420489664057578</v>
+        <v>0.09696376164605838</v>
       </c>
       <c r="B2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07524678609974571</v>
+        <v>-0.1018093248313472</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01685548520180078</v>
+        <v>0.03138489194483073</v>
       </c>
       <c r="F2" t="n">
         <v>-0</v>
@@ -1028,76 +1028,76 @@
         <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1133640257628949</v>
+        <v>0.1192901588442964</v>
       </c>
       <c r="K2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.06386584771905303</v>
+        <v>-0.02281635491791918</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.02743994679184414</v>
+        <v>0.00356015654282134</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.07769455329173687</v>
+        <v>0.01631646556738234</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.1150899852409282</v>
+        <v>0.0861703985219313</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.1215380340877014</v>
+        <v>0.08507851938581537</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z2" t="n">
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.003588432539973574</v>
+        <v>-0.09083677247884137</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.100073722010768</v>
+        <v>-0.04702292377022881</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0896448572409676</v>
+        <v>0.05702354526753739</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
@@ -1112,22 +1112,22 @@
         <v>-0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.1386625580969623</v>
+        <v>-0.01997041041379946</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.08938337251546916</v>
+        <v>-0.01607519425480676</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.007284286823931121</v>
+        <v>-0.08149646890013712</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>-0</v>
@@ -1136,49 +1136,49 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.1974653423898839</v>
+        <v>0.1336501707024003</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.01137530148972175</v>
+        <v>-0.06852541173938405</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.09379608365150284</v>
+        <v>0.2165568478402687</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.1123683034061427</v>
+        <v>0.2086055293652667</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
       </c>
       <c r="BE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.08259375409199921</v>
+        <v>-0.01015945217610379</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.01396330853914646</v>
+        <v>0.002530386602074397</v>
       </c>
       <c r="BH2" t="n">
         <v>0</v>
@@ -1190,64 +1190,64 @@
         <v>0</v>
       </c>
       <c r="BK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.03621962244535964</v>
+        <v>0.06762686497363894</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
       </c>
       <c r="BN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.0408986130393132</v>
+        <v>0.04018246215429826</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.04132386918695544</v>
+        <v>0.1738462337235198</v>
       </c>
       <c r="BQ2" t="n">
         <v>-0</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.1189328253123625</v>
+        <v>0.02802823565795132</v>
       </c>
       <c r="BV2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW2" t="n">
         <v>-0</v>
       </c>
       <c r="BX2" t="n">
-        <v>-0.03873573300426892</v>
+        <v>0.01855011127302498</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.03008741017923769</v>
+        <v>0.07089959336097378</v>
       </c>
       <c r="BZ2" t="n">
         <v>-0</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
         <v>-0</v>
       </c>
       <c r="CD2" t="n">
-        <v>-0.07394282067921532</v>
+        <v>-0.02484109227486015</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.02525334667966998</v>
+        <v>-0.01320057681748943</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.03388423878810315</v>
+        <v>-0.01163354871592714</v>
       </c>
       <c r="CI2" t="n">
         <v>0</v>
@@ -1271,49 +1271,49 @@
         <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.01725057471189521</v>
+        <v>-0.01328620006436192</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>-0.009611120387910704</v>
+        <v>-0.04770529199714677</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.01827660490118384</v>
+        <v>-0.01745211909221465</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT2" t="n">
         <v>-0</v>
       </c>
       <c r="CU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.06879234280555832</v>
+        <v>-0.008432849764699447</v>
       </c>
       <c r="CW2" t="n">
         <v>-0</v>
       </c>
       <c r="CX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY2" t="n">
-        <v>0.01664073625302082</v>
+        <v>0.02377611483697461</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-0.05101673186351181</v>
+        <v>-0.003771474524692389</v>
       </c>
       <c r="DA2" t="n">
         <v>-0</v>
@@ -1328,79 +1328,79 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.01332650285818298</v>
+        <v>-0.01013703470901887</v>
       </c>
       <c r="DF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH2" t="n">
-        <v>-0.009333425933272892</v>
+        <v>0.1392698680417173</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.03008176775360803</v>
+        <v>-0.08132485963948249</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>-0</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.01606158822573655</v>
+        <v>-0.04891804429027107</v>
       </c>
       <c r="DO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-0.05779138470994726</v>
+        <v>0.00939598645368892</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.01937092759685438</v>
+        <v>-0.102308345957376</v>
       </c>
       <c r="DS2" t="n">
         <v>-0</v>
       </c>
       <c r="DT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV2" t="n">
         <v>0</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0394782880080962</v>
+        <v>-0.03403592663511997</v>
       </c>
       <c r="DX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY2" t="n">
         <v>0</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.02199157200655823</v>
+        <v>-0.06881195975455824</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.02438234595193381</v>
+        <v>-0.08257618614409382</v>
       </c>
       <c r="EB2" t="n">
         <v>0</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED2" t="n">
         <v>-0</v>
@@ -1409,25 +1409,25 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.1397983598744145</v>
+        <v>-0.02412693603694778</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.04914887305630697</v>
+        <v>0.02868384819026934</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.02406921506319691</v>
+        <v>0.05083255077264257</v>
       </c>
       <c r="EK2" t="n">
         <v>0</v>
       </c>
       <c r="EL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>-0</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.02840196050336209</v>
+        <v>-0.01579846651987643</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>-0</v>
       </c>
       <c r="ER2" t="n">
-        <v>-0.1199433079232045</v>
+        <v>0.03227605526471701</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.02731747017935968</v>
+        <v>0.04026555458870443</v>
       </c>
       <c r="ET2" t="n">
         <v>-0</v>
@@ -1463,7 +1463,7 @@
         <v>-0</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.06481788572515677</v>
+        <v>-0.007347774351484287</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1472,13 +1472,13 @@
         <v>-0</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.01320015309924265</v>
+        <v>0.007104323850787648</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.0591407599796746</v>
+        <v>-0.01284310668512889</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>-0</v>
@@ -1487,22 +1487,22 @@
         <v>0</v>
       </c>
       <c r="FF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.08770603896229269</v>
+        <v>-0.04212928341056942</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
       </c>
       <c r="FI2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.09967393709167748</v>
+        <v>0.06905343604800082</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.06089356573765739</v>
+        <v>-0.1933937195083247</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
@@ -1511,40 +1511,40 @@
         <v>-0</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO2" t="n">
         <v>-0</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.01988704017148152</v>
+        <v>0.008751496330838247</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FR2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.05859828410860922</v>
+        <v>-0.02975678931245693</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.01302800437934038</v>
+        <v>0.04917580125496394</v>
       </c>
       <c r="FU2" t="n">
         <v>-0</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.1355714012598748</v>
+        <v>0.0245973674537824</v>
       </c>
       <c r="FZ2" t="n">
         <v>0</v>
@@ -1553,30 +1553,30 @@
         <v>-0</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.06702495390946388</v>
+        <v>-0.01676400245010109</v>
       </c>
       <c r="GC2" t="n">
         <v>-0</v>
       </c>
       <c r="GD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
@@ -1681,10 +1681,10 @@
         <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM3" t="n">
         <v>0</v>
@@ -1708,10 +1708,10 @@
         <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE3" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN3" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW3" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO3" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
         <v>0</v>
@@ -1924,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
         <v>0</v>
@@ -1951,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
         <v>0</v>
@@ -2005,10 +2005,10 @@
         <v>0</v>
       </c>
       <c r="EO3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
         <v>0</v>
@@ -2032,10 +2032,10 @@
         <v>0</v>
       </c>
       <c r="EX3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
         <v>0</v>
@@ -2142,10 +2142,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -2196,10 +2196,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD4" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV4" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE4" t="n">
         <v>0</v>
@@ -2331,10 +2331,10 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN4" t="n">
         <v>0</v>
@@ -2358,10 +2358,10 @@
         <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW4" t="n">
         <v>0</v>
@@ -2385,10 +2385,10 @@
         <v>0</v>
       </c>
       <c r="CD4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF4" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>0</v>
       </c>
       <c r="CM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO4" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG4" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP4" t="n">
         <v>0</v>
@@ -2520,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DY4" t="n">
         <v>0</v>
@@ -2547,10 +2547,10 @@
         <v>0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH4" t="n">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="EO4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ4" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="EX4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ4" t="n">
         <v>0</v>
@@ -2711,25 +2711,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.1148602346774372</v>
+        <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.506820416202598</v>
       </c>
       <c r="C5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-0.1512988315292321</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.04953292876669357</v>
+        <v>-0.0894014669982037</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.009884177634093176</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
         <v>-0</v>
@@ -2738,25 +2738,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09728722882520391</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.3281030208409458</v>
       </c>
       <c r="L5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-0.1438206327398314</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.07040141664903402</v>
+        <v>-0.06650711979668926</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.0006827377230045119</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -2765,52 +2765,52 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0.006431166724961633</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.1636703380842824</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>-0.07082589306909623</v>
       </c>
       <c r="W5" t="n">
-        <v>-0.05993719185146688</v>
+        <v>0.06861013235333138</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.03439319914511594</v>
+        <v>-0</v>
       </c>
       <c r="Z5" t="n">
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.0284132764636916</v>
+        <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>0.05205303412651781</v>
       </c>
       <c r="AD5" t="n">
         <v>-0</v>
       </c>
       <c r="AE5" t="n">
-        <v>-0</v>
+        <v>0.02678039893502958</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02528943277950498</v>
+        <v>-0.05456789098434099</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03768374160417973</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -2819,52 +2819,52 @@
         <v>-0</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.04974237458533462</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>0.08252739456966764</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>-0.09311667938124972</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.02559992290779661</v>
+        <v>-0.07155184161350374</v>
       </c>
       <c r="AP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.01791172241340723</v>
+        <v>-0</v>
       </c>
       <c r="AR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.1269521936252281</v>
+        <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>0</v>
+        <v>0.6313985008618598</v>
       </c>
       <c r="AV5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW5" t="n">
-        <v>-0</v>
+        <v>-0.0009671538772709405</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.009820282942601987</v>
+        <v>0.07346296568910898</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0195203021275691</v>
+        <v>-0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
@@ -2873,376 +2873,376 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.03845644125960689</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>0</v>
+        <v>0.1075536327159095</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>0</v>
+        <v>-0.1785100635379747</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.04404283982777431</v>
+        <v>-0.2178832512736839</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.002990222250067162</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
-        <v>-0.01600422443048762</v>
+        <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>0</v>
+        <v>0.1002720668292204</v>
       </c>
       <c r="BN5" t="n">
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>0</v>
+        <v>0.1361023750103224</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.04529845978709609</v>
+        <v>0.1399117610002128</v>
       </c>
       <c r="BQ5" t="n">
         <v>-0</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.003348950706978077</v>
+        <v>0</v>
       </c>
       <c r="BS5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT5" t="n">
         <v>-0</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0602269449168969</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>0</v>
+        <v>0.1792924255309183</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
-        <v>0</v>
+        <v>-0.02728720487002694</v>
       </c>
       <c r="BY5" t="n">
-        <v>-0.01889110808577282</v>
+        <v>0.01847976450551139</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.009226808944140645</v>
+        <v>-0</v>
       </c>
       <c r="CB5" t="n">
         <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD5" t="n">
-        <v>-0.04864637131288269</v>
+        <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.1693227804943385</v>
       </c>
       <c r="CF5" t="n">
         <v>0</v>
       </c>
       <c r="CG5" t="n">
-        <v>0</v>
+        <v>0.01826662589373312</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.02374231019085871</v>
+        <v>-0.02675918665901609</v>
       </c>
       <c r="CI5" t="n">
         <v>-0</v>
       </c>
       <c r="CJ5" t="n">
-        <v>-0.006680248674769179</v>
+        <v>0</v>
       </c>
       <c r="CK5" t="n">
         <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM5" t="n">
-        <v>-0.005715192582442362</v>
+        <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>-0</v>
+        <v>0.02738416219267636</v>
       </c>
       <c r="CO5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP5" t="n">
-        <v>-0</v>
+        <v>-0.08359559011816739</v>
       </c>
       <c r="CQ5" t="n">
-        <v>-0.01129134091306888</v>
+        <v>-0.06075407163329826</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.001866808955707056</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
-        <v>-0.04467304324752246</v>
+        <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.142857516540548</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
       </c>
       <c r="CY5" t="n">
-        <v>-0</v>
+        <v>0.07658621094498133</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.01347516153846971</v>
+        <v>-0.04139931429149234</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
       </c>
       <c r="DB5" t="n">
-        <v>-0.007636932572289881</v>
+        <v>0</v>
       </c>
       <c r="DC5" t="n">
         <v>-0</v>
       </c>
       <c r="DD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0.01863067891485201</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.05082810509893072</v>
       </c>
       <c r="DG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH5" t="n">
-        <v>0</v>
+        <v>0.1168623892593472</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.006068992082217068</v>
+        <v>0.08920151630549029</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.002106408732320138</v>
+        <v>-0</v>
       </c>
       <c r="DL5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM5" t="n">
         <v>0</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.0167649147334882</v>
+        <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.1119684835902885</v>
       </c>
       <c r="DP5" t="n">
         <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0.0166562926384693</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02383625047465135</v>
+        <v>-0.08033552884990094</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.02125567533955322</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV5" t="n">
         <v>0</v>
       </c>
       <c r="DW5" t="n">
-        <v>-0.004826076662408819</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.09731820717538979</v>
       </c>
       <c r="DY5" t="n">
         <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0</v>
+        <v>-0.0136698209407996</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.02154384754299242</v>
+        <v>0.002175222509651525</v>
       </c>
       <c r="EB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.009869993559978351</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0.07345127751462459</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.1374568369701569</v>
       </c>
       <c r="EH5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0.01880636029074252</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.01588244520224394</v>
+        <v>0.06184552242369882</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL5" t="n">
-        <v>-0.02008247739069238</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0.02443288517267473</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>-0.03128995038487917</v>
       </c>
       <c r="EQ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER5" t="n">
-        <v>0</v>
+        <v>0.01584578243602166</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.05061803256441505</v>
+        <v>-0.01258702742849909</v>
       </c>
       <c r="ET5" t="n">
         <v>-0</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01226146811579273</v>
+        <v>-0</v>
       </c>
       <c r="EV5" t="n">
         <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX5" t="n">
-        <v>-0.04209876077061321</v>
+        <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.1357092280183033</v>
       </c>
       <c r="EZ5" t="n">
         <v>0</v>
       </c>
       <c r="FA5" t="n">
-        <v>0</v>
+        <v>0.02738535119598975</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.009332273677116519</v>
+        <v>-0.02495997168107981</v>
       </c>
       <c r="FC5" t="n">
         <v>-0</v>
       </c>
       <c r="FD5" t="n">
-        <v>-0.005997429809646922</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.04779063969533626</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.004356556758884598</v>
       </c>
       <c r="FI5" t="n">
         <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0</v>
+        <v>0.02059320437733043</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.01903466255710211</v>
+        <v>-0.0008013043855318308</v>
       </c>
       <c r="FL5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM5" t="n">
-        <v>-0.01265624717210113</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.009170316369931172</v>
+        <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>-0.028769856418555</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
       </c>
       <c r="FS5" t="n">
-        <v>0</v>
+        <v>0.04858183965051325</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.007284179662682765</v>
+        <v>-0.07497687566319992</v>
       </c>
       <c r="FU5" t="n">
         <v>-0</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.03249799343755416</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>0</v>
@@ -3251,51 +3251,51 @@
         <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.04601680022789597</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>-0</v>
+        <v>0.1043139540051347</v>
       </c>
       <c r="GA5" t="n">
         <v>-0</v>
       </c>
       <c r="GB5" t="n">
-        <v>0</v>
+        <v>-0.0867914094200988</v>
       </c>
       <c r="GC5" t="n">
         <v>-0</v>
       </c>
       <c r="GD5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02898537596015061</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
         <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.1450361230230148</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>-0</v>
+        <v>0.07574580990305529</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03887321479845694</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002230287107550541</v>
+        <v>-0.03222863252999512</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.03834241363061266</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -3304,106 +3304,106 @@
         <v>-0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1207264112945715</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>-0</v>
+        <v>0.05918301025635688</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.03435135403697009</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.03877452402899782</v>
+        <v>-0.02622500634335319</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-0.03560585833504224</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q6" t="n">
         <v>-0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.001857050290487467</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>-0</v>
+        <v>0.009569458067525788</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.00754259542241316</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>-0.06435408124466581</v>
+        <v>-0.002499414233172883</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>0.009552834913747213</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.01274575186924599</v>
+        <v>-0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0.003701274219213306</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.004663292820870933</v>
+        <v>-0</v>
       </c>
       <c r="AE6" t="n">
         <v>-0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.0413566535126809</v>
+        <v>0.008362503566082841</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0</v>
+        <v>0.00585555461237779</v>
       </c>
       <c r="AH6" t="n">
         <v>-0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03625260552276192</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>0.004453908903863552</v>
       </c>
       <c r="AM6" t="n">
-        <v>-0.00782350124680401</v>
+        <v>-0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
       </c>
       <c r="AO6" t="n">
-        <v>-0.02999549599802152</v>
+        <v>-0.02245130020398232</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0</v>
+        <v>-0.0042576185896654</v>
       </c>
       <c r="AQ6" t="n">
         <v>-0</v>
@@ -3415,49 +3415,49 @@
         <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.114117628340116</v>
+        <v>-0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>0.09441954386377933</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0383072516776132</v>
+        <v>-0</v>
       </c>
       <c r="AW6" t="n">
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.02119616618878439</v>
+        <v>-0.01476482259284054</v>
       </c>
       <c r="AY6" t="n">
-        <v>0</v>
+        <v>-0.01868352415241445</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
         <v>-0</v>
       </c>
       <c r="BB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.05564319176666404</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>0.02444684916958942</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.04039148820503655</v>
+        <v>0</v>
       </c>
       <c r="BF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.006441582117500747</v>
+        <v>-0.05760316881359581</v>
       </c>
       <c r="BH6" t="n">
-        <v>-0</v>
+        <v>-0.05623371557282792</v>
       </c>
       <c r="BI6" t="n">
         <v>0</v>
@@ -3466,52 +3466,52 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
-        <v>-0.01540109660723917</v>
+        <v>-0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>0.02608170207992497</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.02911738032375738</v>
+        <v>-0</v>
       </c>
       <c r="BO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.06578745972829261</v>
+        <v>0.01762010635297092</v>
       </c>
       <c r="BQ6" t="n">
-        <v>-0</v>
+        <v>0.01574566319730343</v>
       </c>
       <c r="BR6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT6" t="n">
         <v>-0</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.05885772191533657</v>
+        <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>0.02484372477319048</v>
       </c>
       <c r="BW6" t="n">
-        <v>-0.006195241810025383</v>
+        <v>0</v>
       </c>
       <c r="BX6" t="n">
         <v>0</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.01040466817897747</v>
+        <v>-0.007868121996645046</v>
       </c>
       <c r="BZ6" t="n">
-        <v>-0</v>
+        <v>-0.007469743931104161</v>
       </c>
       <c r="CA6" t="n">
         <v>-0</v>
@@ -3523,319 +3523,319 @@
         <v>-0</v>
       </c>
       <c r="CD6" t="n">
-        <v>-0.05441188091712806</v>
+        <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0.0203873256087943</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.02393491777348398</v>
+        <v>0</v>
       </c>
       <c r="CG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.003571481717310625</v>
+        <v>0.003103448400292762</v>
       </c>
       <c r="CI6" t="n">
-        <v>0</v>
+        <v>0.01999645567531992</v>
       </c>
       <c r="CJ6" t="n">
         <v>0</v>
       </c>
       <c r="CK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
       </c>
       <c r="CM6" t="n">
-        <v>-0.007945204510680854</v>
+        <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>0.0005917581764394743</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.0003081701819541625</v>
+        <v>-0</v>
       </c>
       <c r="CP6" t="n">
         <v>0</v>
       </c>
       <c r="CQ6" t="n">
-        <v>-0.0277966122099782</v>
+        <v>0.003073267481468285</v>
       </c>
       <c r="CR6" t="n">
-        <v>-0</v>
+        <v>-0.007325163895319055</v>
       </c>
       <c r="CS6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT6" t="n">
         <v>-0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
-        <v>-0.0515140630692808</v>
+        <v>-0</v>
       </c>
       <c r="CW6" t="n">
-        <v>-0</v>
+        <v>-0.01438164583997744</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.02451778958140427</v>
+        <v>-0</v>
       </c>
       <c r="CY6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>-0.01219016732162875</v>
+        <v>0.00417517245556626</v>
       </c>
       <c r="DA6" t="n">
-        <v>-0</v>
+        <v>0.02011418158760347</v>
       </c>
       <c r="DB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
       </c>
       <c r="DE6" t="n">
-        <v>-0.008176178045734608</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0.003855100247764238</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.02378759169684718</v>
+        <v>0</v>
       </c>
       <c r="DH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.02631619628820927</v>
+        <v>0.02537501496333749</v>
       </c>
       <c r="DJ6" t="n">
-        <v>-0</v>
+        <v>0.01053414234115276</v>
       </c>
       <c r="DK6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.001419847522161893</v>
+        <v>-0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0.0004068853753831809</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.001179715184806455</v>
+        <v>0</v>
       </c>
       <c r="DQ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.02330528711888797</v>
+        <v>0.009184609220979988</v>
       </c>
       <c r="DS6" t="n">
-        <v>-0</v>
+        <v>-0.0009440773418648769</v>
       </c>
       <c r="DT6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
-        <v>-0.002728090233393454</v>
+        <v>0</v>
       </c>
       <c r="DX6" t="n">
-        <v>-0</v>
+        <v>-0.03592186479620006</v>
       </c>
       <c r="DY6" t="n">
-        <v>-0.001700534632522462</v>
+        <v>0</v>
       </c>
       <c r="DZ6" t="n">
         <v>0</v>
       </c>
       <c r="EA6" t="n">
-        <v>-0.007665757593734312</v>
+        <v>0.01511872580250104</v>
       </c>
       <c r="EB6" t="n">
-        <v>-0</v>
+        <v>0.02161658552178343</v>
       </c>
       <c r="EC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED6" t="n">
         <v>-0</v>
       </c>
       <c r="EE6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF6" t="n">
-        <v>-0.07676927042038402</v>
+        <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0.02309081079837524</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.01945931147589974</v>
+        <v>-0</v>
       </c>
       <c r="EI6" t="n">
         <v>0</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.006483010413221474</v>
+        <v>0.005808472753741817</v>
       </c>
       <c r="EK6" t="n">
-        <v>0</v>
+        <v>0.02088522362134528</v>
       </c>
       <c r="EL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
-        <v>-0.0204508473687705</v>
+        <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0.003651672950796888</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.02812466724517193</v>
+        <v>-0</v>
       </c>
       <c r="ER6" t="n">
         <v>0</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.01494875078664898</v>
+        <v>0.01428059629850453</v>
       </c>
       <c r="ET6" t="n">
-        <v>-0</v>
+        <v>0.001039945193238078</v>
       </c>
       <c r="EU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV6" t="n">
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX6" t="n">
-        <v>-0.05064436858503728</v>
+        <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0.01408867330667576</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.02412901628566122</v>
+        <v>-0</v>
       </c>
       <c r="FA6" t="n">
         <v>0</v>
       </c>
       <c r="FB6" t="n">
-        <v>-0.006886938631517882</v>
+        <v>0.009568043530420617</v>
       </c>
       <c r="FC6" t="n">
-        <v>-0</v>
+        <v>0.02244727867675199</v>
       </c>
       <c r="FD6" t="n">
         <v>-0</v>
       </c>
       <c r="FE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.04986938116506824</v>
+        <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>-0</v>
+        <v>-0.0172001859272529</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.01233785781332352</v>
+        <v>-0</v>
       </c>
       <c r="FJ6" t="n">
         <v>-0</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.0377729488390959</v>
+        <v>0.01062282213024402</v>
       </c>
       <c r="FL6" t="n">
-        <v>0</v>
+        <v>0.005812112691809729</v>
       </c>
       <c r="FM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.009701970084661782</v>
+        <v>0</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0</v>
+        <v>0.007573395310806696</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.009673669511068506</v>
+        <v>0</v>
       </c>
       <c r="FS6" t="n">
         <v>-0</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.02455458670969424</v>
+        <v>-0.01660380050588882</v>
       </c>
       <c r="FU6" t="n">
-        <v>0</v>
+        <v>0.0163570725718126</v>
       </c>
       <c r="FV6" t="n">
         <v>0</v>
       </c>
       <c r="FW6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.02863190598967561</v>
+        <v>-0</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0</v>
+        <v>0.003374934830430797</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.00315930106240037</v>
+        <v>-0</v>
       </c>
       <c r="GB6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC6" t="n">
         <v>0</v>
       </c>
       <c r="GD6" t="n">
-        <v>-0</v>
+        <v>-0.007527326768514248</v>
       </c>
       <c r="GE6" t="n">
         <v>0</v>
@@ -3849,25 +3849,25 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.1220730592101866</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>-0</v>
+        <v>0.4560203791137082</v>
       </c>
       <c r="C7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-0.1191726632923397</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.04487240140963736</v>
+        <v>-0.1246238288012107</v>
       </c>
       <c r="F7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01995473154064639</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>-0</v>
@@ -3876,25 +3876,25 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1135032357233057</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>-0</v>
+        <v>0.3109697210267965</v>
       </c>
       <c r="L7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-0.1101520934483003</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.06507976187849428</v>
+        <v>-0.09309818454073726</v>
       </c>
       <c r="O7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.003196855375531748</v>
+        <v>-0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -3903,52 +3903,52 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0.01490263462252885</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1272378730593008</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>-0.0423394313341354</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.06030360392562029</v>
+        <v>0.112485184428685</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.05380709493929006</v>
+        <v>-0</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.01857095298305691</v>
+        <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>0.05033190370403064</v>
       </c>
       <c r="AD7" t="n">
         <v>-0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>0.007669813721382654</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.01795521706682005</v>
+        <v>-0.02891133705097918</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.04343668412062833</v>
+        <v>-0</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
@@ -3957,52 +3957,52 @@
         <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.03907910490734359</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>0.04012783437829444</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>-0.05214898450704054</v>
       </c>
       <c r="AO7" t="n">
-        <v>-0.01218853305922231</v>
+        <v>-0.06312373335009729</v>
       </c>
       <c r="AP7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.01242398915776845</v>
+        <v>-0</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.1007073112886479</v>
+        <v>-0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>0.5618150716088457</v>
       </c>
       <c r="AV7" t="n">
         <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0.04243648738210168</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.01219081226702051</v>
+        <v>0.04832908917313785</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.02359795814518775</v>
+        <v>0</v>
       </c>
       <c r="BA7" t="n">
         <v>-0</v>
@@ -4011,25 +4011,25 @@
         <v>0</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.04358351246666518</v>
+        <v>0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>0.08118559746355276</v>
       </c>
       <c r="BE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>-0.1792315763962275</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.03922365477406019</v>
+        <v>-0.1638335891531407</v>
       </c>
       <c r="BH7" t="n">
         <v>0</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.02254395126614945</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
@@ -4038,187 +4038,187 @@
         <v>0</v>
       </c>
       <c r="BL7" t="n">
-        <v>-0.02334012471482393</v>
+        <v>-0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>0.1467585076903564</v>
       </c>
       <c r="BN7" t="n">
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>0.1025033420934734</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.04364147143260427</v>
+        <v>0.1684456950711455</v>
       </c>
       <c r="BQ7" t="n">
         <v>-0</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.008869352264063329</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT7" t="n">
         <v>-0</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.04752185780531681</v>
+        <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>0.1569418276639266</v>
       </c>
       <c r="BW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX7" t="n">
-        <v>0</v>
+        <v>-0.001234405415390258</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.006194958607763388</v>
+        <v>0.02114289184515704</v>
       </c>
       <c r="BZ7" t="n">
         <v>-0</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.01174493914226786</v>
+        <v>-0</v>
       </c>
       <c r="CB7" t="n">
         <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
-        <v>-0.04158662196608677</v>
+        <v>-0</v>
       </c>
       <c r="CE7" t="n">
-        <v>0</v>
+        <v>-0.1364523880912543</v>
       </c>
       <c r="CF7" t="n">
         <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>-0</v>
+        <v>-0.01593437886435398</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.01353660871156393</v>
+        <v>0.0001472034763176676</v>
       </c>
       <c r="CI7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>-0.01370991987974801</v>
+        <v>0</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
       </c>
       <c r="CL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM7" t="n">
-        <v>-0.001147431087799553</v>
+        <v>0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.005405350070254285</v>
       </c>
       <c r="CO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>-0.07553653094256396</v>
       </c>
       <c r="CQ7" t="n">
-        <v>-0.02428544633530915</v>
+        <v>-0.07312124602062256</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
       </c>
       <c r="CS7" t="n">
-        <v>-0.01204195524646691</v>
+        <v>-0</v>
       </c>
       <c r="CT7" t="n">
         <v>-0</v>
       </c>
       <c r="CU7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
-        <v>-0.03826881326661612</v>
+        <v>0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>-0.09305884893300372</v>
       </c>
       <c r="CX7" t="n">
         <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>0.0410006384071785</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.003406613511301134</v>
+        <v>-0.01589988637875427</v>
       </c>
       <c r="DA7" t="n">
         <v>0</v>
       </c>
       <c r="DB7" t="n">
-        <v>-0.007996667432011124</v>
+        <v>0</v>
       </c>
       <c r="DC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE7" t="n">
-        <v>-0.005208079436616401</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>0</v>
+        <v>-0.01645453524315078</v>
       </c>
       <c r="DG7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.09262447410802493</v>
       </c>
       <c r="DI7" t="n">
-        <v>-0.003176094177410318</v>
+        <v>0.03033667662861024</v>
       </c>
       <c r="DJ7" t="n">
         <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>-0.001530989430374136</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM7" t="n">
         <v>0</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.01512678839144546</v>
+        <v>-0</v>
       </c>
       <c r="DO7" t="n">
-        <v>0</v>
+        <v>-0.1238952924929561</v>
       </c>
       <c r="DP7" t="n">
         <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-0</v>
+        <v>-0.02429273323575949</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.02932887661579634</v>
+        <v>-0.06795262523074022</v>
       </c>
       <c r="DS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.03288749347731294</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>-0</v>
@@ -4227,79 +4227,79 @@
         <v>0</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0001197313736237535</v>
+        <v>-0</v>
       </c>
       <c r="DX7" t="n">
-        <v>-0</v>
+        <v>-0.08280868064574037</v>
       </c>
       <c r="DY7" t="n">
         <v>0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0</v>
+        <v>-0.03620472255545056</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.01455136982280019</v>
+        <v>0.001269630666195115</v>
       </c>
       <c r="EB7" t="n">
         <v>-0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0.0009739978342363242</v>
+        <v>-0</v>
       </c>
       <c r="ED7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>-0.06864951150655001</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.1120003827645459</v>
       </c>
       <c r="EH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>0.0002292147476986073</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.01097619038175769</v>
+        <v>0.088496057036861</v>
       </c>
       <c r="EK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL7" t="n">
-        <v>-0.02388064492715025</v>
+        <v>-0</v>
       </c>
       <c r="EM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN7" t="n">
         <v>-0</v>
       </c>
       <c r="EO7" t="n">
-        <v>-0.01399154431096538</v>
+        <v>0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>0.009223540851360602</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.008252254054124268</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.04821257914458025</v>
+        <v>0.04032703175097099</v>
       </c>
       <c r="ET7" t="n">
         <v>-0</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.005141355082221618</v>
+        <v>-0</v>
       </c>
       <c r="EV7" t="n">
         <v>0</v>
@@ -4308,243 +4308,243 @@
         <v>-0</v>
       </c>
       <c r="EX7" t="n">
-        <v>-0.03548896215554502</v>
+        <v>-0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>-0.08944148920511914</v>
       </c>
       <c r="EZ7" t="n">
         <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0.005175708238250683</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.0008153142137303692</v>
+        <v>0.0185227474102873</v>
       </c>
       <c r="FC7" t="n">
         <v>-0</v>
       </c>
       <c r="FD7" t="n">
-        <v>-0.007629122963921479</v>
+        <v>0</v>
       </c>
       <c r="FE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.04745329615635129</v>
+        <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>0</v>
+        <v>-0.04991696124130957</v>
       </c>
       <c r="FI7" t="n">
         <v>-0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0</v>
+        <v>0.002008894591194805</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.04181067422612057</v>
+        <v>-0.003623766167446728</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.005715724619000787</v>
+        <v>0</v>
       </c>
       <c r="FN7" t="n">
         <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.01070354469315128</v>
+        <v>-0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0</v>
+        <v>-0.05389705048680056</v>
       </c>
       <c r="FR7" t="n">
         <v>0</v>
       </c>
       <c r="FS7" t="n">
-        <v>0</v>
+        <v>0.02955512453738037</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.009544745129356776</v>
+        <v>-0.1061943218738938</v>
       </c>
       <c r="FU7" t="n">
         <v>-0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0.001202850367064484</v>
+        <v>-0</v>
       </c>
       <c r="FW7" t="n">
         <v>0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.04384567796621367</v>
+        <v>-0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.09583008573009355</v>
       </c>
       <c r="GA7" t="n">
         <v>-0</v>
       </c>
       <c r="GB7" t="n">
-        <v>0</v>
+        <v>-0.08244775888907108</v>
       </c>
       <c r="GC7" t="n">
         <v>-0</v>
       </c>
       <c r="GD7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.02129851853530104</v>
+        <v>-0</v>
       </c>
       <c r="GF7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.2514526748201436</v>
+        <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>0.1194906980511484</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.09822499503637709</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04633084585957801</v>
+        <v>-0.04538258791788243</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>-0.1060676843250774</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H8" t="n">
         <v>-0</v>
       </c>
       <c r="I8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.247634884720926</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>-0</v>
+        <v>0.09252808125432513</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.08618526253565525</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.06659518430518317</v>
+        <v>-0.01331453499912601</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>-0.08601883698931477</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q8" t="n">
         <v>-0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01983827346793934</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.02417774931799993</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.03828337874325876</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.1371443913197891</v>
+        <v>-0.02519406860647332</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>0.0001621411500019293</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0252924206199185</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>-0.007898924772483643</v>
       </c>
       <c r="AD8" t="n">
-        <v>-0.01167610001305215</v>
+        <v>-0</v>
       </c>
       <c r="AE8" t="n">
         <v>-0</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.06848473197577079</v>
+        <v>0.005915520365239308</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>-0.004439580105144186</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.07785840928399933</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.03593502062855048</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.0268354636173691</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.04482214959403116</v>
+        <v>-0.01358709418525111</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>-0.02558114158990644</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -4553,25 +4553,25 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1761098961031493</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.1242922100013443</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.1089337175305945</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.008142841491801946</v>
+        <v>-0.06352238331781064</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0.1062147378654205</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,52 +4580,52 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.05964919096000536</v>
+        <v>0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.03694514092672558</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.04785651408088997</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0779642707125941</v>
+        <v>-0.03323570572489835</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>-0.0486212010586583</v>
       </c>
       <c r="BI8" t="n">
         <v>0</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.009723669760702772</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.03716092023107177</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.06374894125715573</v>
+        <v>-0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.1220724190343221</v>
+        <v>0.007521854115291301</v>
       </c>
       <c r="BQ8" t="n">
-        <v>-0</v>
+        <v>-0.0008198796342343268</v>
       </c>
       <c r="BR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
@@ -4634,22 +4634,22 @@
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.1086802101496238</v>
+        <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.02960873057947865</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.0287035150382812</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
         <v>0</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.009857202968270357</v>
+        <v>-0.0287530358911635</v>
       </c>
       <c r="BZ8" t="n">
-        <v>-0</v>
+        <v>-0.03646328291012496</v>
       </c>
       <c r="CA8" t="n">
         <v>-0</v>
@@ -4661,25 +4661,25 @@
         <v>-0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.08457911128376143</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.02538445453907556</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.0347304361455876</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.006997227528591118</v>
+        <v>0.002008766886375961</v>
       </c>
       <c r="CI8" t="n">
-        <v>-0</v>
+        <v>0.04364388652348777</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -4688,52 +4688,52 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01252279362257185</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>0.005677485740793072</v>
       </c>
       <c r="CO8" t="n">
-        <v>-0.01078074672218138</v>
+        <v>0</v>
       </c>
       <c r="CP8" t="n">
         <v>0</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.03652011918004303</v>
+        <v>0.008567427391484703</v>
       </c>
       <c r="CR8" t="n">
-        <v>-0</v>
+        <v>-0.008252129228281807</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.07680432717298</v>
+        <v>-0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.02217506018664159</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.03571116417942086</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.02297380218863008</v>
+        <v>0.0008308610522224213</v>
       </c>
       <c r="DA8" t="n">
-        <v>-0</v>
+        <v>0.04895950498286161</v>
       </c>
       <c r="DB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DC8" t="n">
         <v>-0</v>
@@ -4742,76 +4742,76 @@
         <v>-0</v>
       </c>
       <c r="DE8" t="n">
-        <v>-0.0375354704428694</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>0.009302180731053889</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.03367516584730731</v>
+        <v>0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.01851386264560799</v>
+        <v>0.05541174839478513</v>
       </c>
       <c r="DJ8" t="n">
-        <v>-0</v>
+        <v>0.003794604839087541</v>
       </c>
       <c r="DK8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL8" t="n">
         <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.003014829127617775</v>
+        <v>0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.003229431030354295</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.04067558013889652</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
         <v>0</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.04979044920517592</v>
+        <v>0.01563345646498519</v>
       </c>
       <c r="DS8" t="n">
-        <v>-0</v>
+        <v>0.009077827972945393</v>
       </c>
       <c r="DT8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU8" t="n">
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.003052428943773157</v>
+        <v>-0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.0350143366916657</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.00116208037340084</v>
+        <v>0</v>
       </c>
       <c r="DZ8" t="n">
         <v>0</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.02145653603880542</v>
+        <v>0.01249976484230127</v>
       </c>
       <c r="EB8" t="n">
-        <v>-0</v>
+        <v>0.04182547911309271</v>
       </c>
       <c r="EC8" t="n">
         <v>-0</v>
@@ -4823,49 +4823,49 @@
         <v>-0</v>
       </c>
       <c r="EF8" t="n">
-        <v>-0.1327923642468631</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.02782162175200936</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.04272336686677704</v>
+        <v>-0</v>
       </c>
       <c r="EI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01708940493681043</v>
+        <v>0.0002360768313014737</v>
       </c>
       <c r="EK8" t="n">
-        <v>0</v>
+        <v>0.04867129685946653</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.05091200737651764</v>
+        <v>0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>-0.009155441899093597</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.03379272485419596</v>
+        <v>-0</v>
       </c>
       <c r="ER8" t="n">
         <v>0</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.007968589797451922</v>
+        <v>-0.01017714918631951</v>
       </c>
       <c r="ET8" t="n">
-        <v>-0</v>
+        <v>0.009055903376728142</v>
       </c>
       <c r="EU8" t="n">
         <v>-0</v>
@@ -4874,25 +4874,25 @@
         <v>0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.07758497610332035</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.01837062270953727</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.03052881928883173</v>
+        <v>-0</v>
       </c>
       <c r="FA8" t="n">
         <v>0</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.01446742329888217</v>
+        <v>0.005674906055468013</v>
       </c>
       <c r="FC8" t="n">
-        <v>-0</v>
+        <v>0.04319432907627201</v>
       </c>
       <c r="FD8" t="n">
         <v>-0</v>
@@ -4904,67 +4904,67 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.05998406977323301</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.01481857746247571</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.03908426561716581</v>
+        <v>-0</v>
       </c>
       <c r="FJ8" t="n">
         <v>-0</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.0424765887620546</v>
+        <v>0.0008034044519451116</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>0.03457919844951835</v>
       </c>
       <c r="FM8" t="n">
         <v>0</v>
       </c>
       <c r="FN8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO8" t="n">
         <v>0</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.004995395658478997</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.001245997734627829</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.01277330467591832</v>
+        <v>0</v>
       </c>
       <c r="FS8" t="n">
         <v>-0</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.04056297639508927</v>
+        <v>-0.03109227689967041</v>
       </c>
       <c r="FU8" t="n">
-        <v>0</v>
+        <v>0.05333200035334506</v>
       </c>
       <c r="FV8" t="n">
         <v>-0</v>
       </c>
       <c r="FW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.03094230217926441</v>
+        <v>-0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>0.01064855719178364</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.01592867282307144</v>
+        <v>-0</v>
       </c>
       <c r="GB8" t="n">
         <v>-0</v>
@@ -4973,10 +4973,10 @@
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>-0</v>
+        <v>0.004874948921817543</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
         <v>-0</v>
@@ -4987,160 +4987,160 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.185042042309455</v>
+        <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>-0</v>
+        <v>0.1019117481666127</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.09105367542289938</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03978731655880786</v>
+        <v>-0.04562600082483012</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0.08590017957647095</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
         <v>-0</v>
       </c>
       <c r="I9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1790484998618105</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>-0</v>
+        <v>0.09119496520188833</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.0603418781250667</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-0.03663955803313927</v>
+        <v>-0.02954614851232955</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0.05998112290388039</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
         <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.00681605728135544</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>-0</v>
+        <v>0.01164796016002569</v>
       </c>
       <c r="U9" t="n">
-        <v>-0.01208934548531955</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>-0.08223850032408603</v>
+        <v>-0.009946405238814548</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>0.01680434133714383</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0.007808512861547111</v>
+        <v>-0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.01118813592439956</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.01660989363057038</v>
+        <v>-0</v>
       </c>
       <c r="AE9" t="n">
         <v>-0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.0467927825852516</v>
+        <v>-0.0007466142246327459</v>
       </c>
       <c r="AG9" t="n">
-        <v>-0</v>
+        <v>-0.004589056584121867</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.04354100896804824</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.01276871327755899</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.01392220288531862</v>
+        <v>-0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0.02807214369642478</v>
+        <v>-0.02430631694893935</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0.002820544235132121</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.1160864301991572</v>
+        <v>-0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>0.1091856965071546</v>
       </c>
       <c r="AV9" t="n">
-        <v>-0.07496948991013537</v>
+        <v>-0</v>
       </c>
       <c r="AW9" t="n">
         <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.02373880762904306</v>
+        <v>-0.03748988285653773</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0.0474782303129833</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
         <v>-0</v>
@@ -5149,76 +5149,76 @@
         <v>0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0.0453356820453964</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>0.03358181153526307</v>
       </c>
       <c r="BE9" t="n">
-        <v>-0.04987474232139825</v>
+        <v>0</v>
       </c>
       <c r="BF9" t="n">
         <v>0</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.04594260372557026</v>
+        <v>-0.04794027450527292</v>
       </c>
       <c r="BH9" t="n">
-        <v>-0</v>
+        <v>-0.07020347915159861</v>
       </c>
       <c r="BI9" t="n">
         <v>0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
       </c>
       <c r="BL9" t="n">
-        <v>-0.007296423787665205</v>
+        <v>-0</v>
       </c>
       <c r="BM9" t="n">
-        <v>-0</v>
+        <v>0.03668971782635744</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.050178061523058</v>
+        <v>-0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP9" t="n">
-        <v>0.0793874676213677</v>
+        <v>0.01356204953244396</v>
       </c>
       <c r="BQ9" t="n">
-        <v>-0</v>
+        <v>0.02683996189946957</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT9" t="n">
         <v>-0</v>
       </c>
       <c r="BU9" t="n">
-        <v>0.07186744935315602</v>
+        <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>0.03175236465464855</v>
       </c>
       <c r="BW9" t="n">
-        <v>-0.00578145668977631</v>
+        <v>0</v>
       </c>
       <c r="BX9" t="n">
         <v>0</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0186351497184514</v>
+        <v>-0.009874276974335756</v>
       </c>
       <c r="BZ9" t="n">
-        <v>-0</v>
+        <v>-0.008000848394761131</v>
       </c>
       <c r="CA9" t="n">
         <v>-0</v>
@@ -5230,157 +5230,157 @@
         <v>-0</v>
       </c>
       <c r="CD9" t="n">
-        <v>-0.05633766681518653</v>
+        <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>-0.02088247333688549</v>
       </c>
       <c r="CF9" t="n">
-        <v>0.03042332391555173</v>
+        <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0.002754969899496237</v>
+        <v>0.005240114736717657</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>0.02908609164144044</v>
       </c>
       <c r="CJ9" t="n">
         <v>-0</v>
       </c>
       <c r="CK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CL9" t="n">
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>-0.008466700184335787</v>
+        <v>0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>-0.004571943911391039</v>
       </c>
       <c r="CO9" t="n">
-        <v>-0.01245657954662662</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0.05194780014638798</v>
+        <v>0.006487817169739947</v>
       </c>
       <c r="CR9" t="n">
-        <v>-0</v>
+        <v>-0.005065132143143217</v>
       </c>
       <c r="CS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT9" t="n">
         <v>-0</v>
       </c>
       <c r="CU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>-0.0494527324463707</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>-0</v>
+        <v>-0.01323898798019688</v>
       </c>
       <c r="CX9" t="n">
-        <v>0.03265466154594417</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>-0.02289899704663131</v>
+        <v>0.006498621195839063</v>
       </c>
       <c r="DA9" t="n">
-        <v>-0</v>
+        <v>0.03011508169357524</v>
       </c>
       <c r="DB9" t="n">
         <v>0</v>
       </c>
       <c r="DC9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE9" t="n">
-        <v>-0.02338108836126839</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>-0.01075625517884751</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.01984768524531415</v>
+        <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.01116534864743063</v>
+        <v>0.04725011580701986</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0</v>
+        <v>-0.003197738894053326</v>
       </c>
       <c r="DK9" t="n">
         <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN9" t="n">
-        <v>0.005361735697086677</v>
+        <v>-0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.0006128007412766327</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.008989002129939508</v>
+        <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR9" t="n">
-        <v>0.0240821846296154</v>
+        <v>0.007272711697786836</v>
       </c>
       <c r="DS9" t="n">
-        <v>-0</v>
+        <v>-0.01397501561629381</v>
       </c>
       <c r="DT9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW9" t="n">
-        <v>-0.003812242575796223</v>
+        <v>-0</v>
       </c>
       <c r="DX9" t="n">
-        <v>-0</v>
+        <v>-0.03660958086851607</v>
       </c>
       <c r="DY9" t="n">
-        <v>-0.003910672656318866</v>
+        <v>0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0.01732284166403895</v>
+        <v>0.01672688898505799</v>
       </c>
       <c r="EB9" t="n">
-        <v>-0</v>
+        <v>0.02101258781534183</v>
       </c>
       <c r="EC9" t="n">
         <v>-0</v>
@@ -5392,148 +5392,148 @@
         <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>-0.08595611450218807</v>
+        <v>0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>-0.02482948653957689</v>
       </c>
       <c r="EH9" t="n">
-        <v>0.02498968790311293</v>
+        <v>-0</v>
       </c>
       <c r="EI9" t="n">
         <v>0</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-0.001342799039888957</v>
+        <v>-0.001572707540105759</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>0.03751294448049863</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN9" t="n">
         <v>-0</v>
       </c>
       <c r="EO9" t="n">
-        <v>-0.03938857923468173</v>
+        <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>0.001386093192979879</v>
       </c>
       <c r="EQ9" t="n">
-        <v>0.04065103649313979</v>
+        <v>0</v>
       </c>
       <c r="ER9" t="n">
         <v>0</v>
       </c>
       <c r="ES9" t="n">
-        <v>0.001732440949923099</v>
+        <v>0.02073609096832773</v>
       </c>
       <c r="ET9" t="n">
-        <v>-0</v>
+        <v>0.007534983483790549</v>
       </c>
       <c r="EU9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV9" t="n">
         <v>0</v>
       </c>
       <c r="EW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX9" t="n">
-        <v>-0.05246033822370829</v>
+        <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>-0.01204010382442314</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.03040387379289435</v>
+        <v>-0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0.01188413119141563</v>
+        <v>0.01066225538279482</v>
       </c>
       <c r="FC9" t="n">
-        <v>-0</v>
+        <v>0.03313395539609962</v>
       </c>
       <c r="FD9" t="n">
         <v>-0</v>
       </c>
       <c r="FE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF9" t="n">
         <v>0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0.03253042325096069</v>
+        <v>0</v>
       </c>
       <c r="FH9" t="n">
-        <v>-0</v>
+        <v>-0.01838408877973874</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.01534462991369945</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
         <v>-0</v>
       </c>
       <c r="FK9" t="n">
-        <v>0.03239654777587533</v>
+        <v>0.005933800781193055</v>
       </c>
       <c r="FL9" t="n">
-        <v>0</v>
+        <v>0.003311404596918152</v>
       </c>
       <c r="FM9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN9" t="n">
         <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP9" t="n">
-        <v>0.001142056641913028</v>
+        <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.009182508353747102</v>
       </c>
       <c r="FR9" t="n">
-        <v>0.01283313288971406</v>
+        <v>0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT9" t="n">
-        <v>0.04134233108010343</v>
+        <v>-0.01793210089397788</v>
       </c>
       <c r="FU9" t="n">
-        <v>0</v>
+        <v>0.0151665466470535</v>
       </c>
       <c r="FV9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0.03031103468049234</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.00516924183354349</v>
       </c>
       <c r="GA9" t="n">
-        <v>0.007086870598092319</v>
+        <v>-0</v>
       </c>
       <c r="GB9" t="n">
         <v>-0</v>
@@ -5542,10 +5542,10 @@
         <v>0</v>
       </c>
       <c r="GD9" t="n">
-        <v>-0</v>
+        <v>-0.004917632413180261</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
         <v>-0</v>
@@ -5556,106 +5556,106 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.2566825607311325</v>
+        <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>-0</v>
+        <v>0.449737565258405</v>
       </c>
       <c r="C10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>-0.1105046333931457</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1157066997612619</v>
+        <v>-0.06264448288242515</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0008243425323164334</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.22373197583866</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>-0</v>
+        <v>0.3291518694469547</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-0.08964385874323494</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.1496884435681155</v>
+        <v>-0.06251897768483629</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.006343486817167408</v>
+        <v>-0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.002824160805841229</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.1166340421384599</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.0003669408841699511</v>
       </c>
       <c r="W10" t="n">
-        <v>-0.0547283627668622</v>
+        <v>0.06163670748069955</v>
       </c>
       <c r="X10" t="n">
         <v>-0</v>
       </c>
       <c r="Y10" t="n">
-        <v>-0.04392854301957802</v>
+        <v>-0</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.03955880842519052</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0</v>
+        <v>0.1433434825568488</v>
       </c>
       <c r="AD10" t="n">
         <v>-0</v>
       </c>
       <c r="AE10" t="n">
-        <v>-0</v>
+        <v>-0.01961857442003052</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.02511724721055219</v>
+        <v>-0.08757633248848125</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.04715890086329438</v>
+        <v>-0</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
@@ -5664,25 +5664,25 @@
         <v>-0</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.05879559666365812</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.04265522079927963</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>-0.09269306029650923</v>
       </c>
       <c r="AO10" t="n">
-        <v>-0.0513342742737337</v>
+        <v>-0.05555179727076654</v>
       </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.01284842595720826</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -5691,79 +5691,79 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.1704846136942584</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0</v>
+        <v>0.4541626509940474</v>
       </c>
       <c r="AV10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW10" t="n">
-        <v>-0</v>
+        <v>-0.0307720555014558</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.08543300368541298</v>
+        <v>0.1369112820278222</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.011654546512197</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.07307305977165857</v>
+        <v>-0</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>0.02832795993562646</v>
       </c>
       <c r="BE10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>-0.04447679403625763</v>
       </c>
       <c r="BG10" t="n">
-        <v>-0.03604772471012406</v>
+        <v>-0.2256646256631672</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.02520845007489898</v>
+        <v>-0</v>
       </c>
       <c r="BJ10" t="n">
         <v>0</v>
       </c>
       <c r="BK10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.04242423657149116</v>
+        <v>-0</v>
       </c>
       <c r="BM10" t="n">
-        <v>0</v>
+        <v>0.01631085168759223</v>
       </c>
       <c r="BN10" t="n">
         <v>-0</v>
       </c>
       <c r="BO10" t="n">
-        <v>0</v>
+        <v>0.1120875788853284</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.06999007528454719</v>
+        <v>0.1238934374747671</v>
       </c>
       <c r="BQ10" t="n">
         <v>-0</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.03676177213306825</v>
+        <v>-0</v>
       </c>
       <c r="BS10" t="n">
         <v>-0</v>
@@ -5772,106 +5772,106 @@
         <v>-0</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.07635672228181081</v>
+        <v>0</v>
       </c>
       <c r="BV10" t="n">
-        <v>0</v>
+        <v>0.1444643672499385</v>
       </c>
       <c r="BW10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX10" t="n">
-        <v>0</v>
+        <v>0.004258560489198703</v>
       </c>
       <c r="BY10" t="n">
-        <v>-0.05538107678098186</v>
+        <v>0.03317928548945379</v>
       </c>
       <c r="BZ10" t="n">
         <v>0</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.001200897257456415</v>
+        <v>0</v>
       </c>
       <c r="CB10" t="n">
         <v>-0</v>
       </c>
       <c r="CC10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD10" t="n">
-        <v>-0.07834469231637146</v>
+        <v>-0</v>
       </c>
       <c r="CE10" t="n">
-        <v>0</v>
+        <v>-0.1118568378400838</v>
       </c>
       <c r="CF10" t="n">
         <v>0</v>
       </c>
       <c r="CG10" t="n">
-        <v>-0</v>
+        <v>0.01761667244827174</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.04154426575052304</v>
+        <v>-0.01100582683321509</v>
       </c>
       <c r="CI10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.003135079426507823</v>
+        <v>-0</v>
       </c>
       <c r="CK10" t="n">
         <v>0</v>
       </c>
       <c r="CL10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CM10" t="n">
-        <v>-0.006521509476319063</v>
+        <v>0</v>
       </c>
       <c r="CN10" t="n">
-        <v>-0</v>
+        <v>0.008400036684102934</v>
       </c>
       <c r="CO10" t="n">
         <v>0</v>
       </c>
       <c r="CP10" t="n">
-        <v>-0</v>
+        <v>-0.08675364367323225</v>
       </c>
       <c r="CQ10" t="n">
-        <v>-0.01733974193118507</v>
+        <v>-0.07227742322251231</v>
       </c>
       <c r="CR10" t="n">
         <v>0</v>
       </c>
       <c r="CS10" t="n">
-        <v>-0.01526972355012971</v>
+        <v>-0</v>
       </c>
       <c r="CT10" t="n">
         <v>-0</v>
       </c>
       <c r="CU10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV10" t="n">
-        <v>-0.07099376002451306</v>
+        <v>0</v>
       </c>
       <c r="CW10" t="n">
-        <v>-0</v>
+        <v>-0.1005669351094852</v>
       </c>
       <c r="CX10" t="n">
         <v>-0</v>
       </c>
       <c r="CY10" t="n">
-        <v>0</v>
+        <v>0.0439597153505891</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.02336067445850644</v>
+        <v>-0.009340895970640599</v>
       </c>
       <c r="DA10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.005576426852396948</v>
+        <v>0</v>
       </c>
       <c r="DC10" t="n">
         <v>-0</v>
@@ -5880,52 +5880,52 @@
         <v>0</v>
       </c>
       <c r="DE10" t="n">
-        <v>-0.01512029022080178</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>0</v>
+        <v>-0.009492100051810023</v>
       </c>
       <c r="DG10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH10" t="n">
-        <v>-0</v>
+        <v>0.004725703634261891</v>
       </c>
       <c r="DI10" t="n">
-        <v>-0.01440165955138147</v>
+        <v>0.03065408289940102</v>
       </c>
       <c r="DJ10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK10" t="n">
-        <v>-0.002356085962902546</v>
+        <v>-0</v>
       </c>
       <c r="DL10" t="n">
         <v>0</v>
       </c>
       <c r="DM10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0081865041033252</v>
+        <v>-0</v>
       </c>
       <c r="DO10" t="n">
-        <v>0</v>
+        <v>-0.08139158515880159</v>
       </c>
       <c r="DP10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DQ10" t="n">
-        <v>-0</v>
+        <v>-0.1045421119972278</v>
       </c>
       <c r="DR10" t="n">
-        <v>-0.04127170985731084</v>
+        <v>-0.07155691946303325</v>
       </c>
       <c r="DS10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT10" t="n">
-        <v>-0.02401655040515577</v>
+        <v>0</v>
       </c>
       <c r="DU10" t="n">
         <v>-0</v>
@@ -5934,25 +5934,25 @@
         <v>0</v>
       </c>
       <c r="DW10" t="n">
-        <v>-0.01797341144187847</v>
+        <v>0</v>
       </c>
       <c r="DX10" t="n">
-        <v>-0</v>
+        <v>-0.01555584846411274</v>
       </c>
       <c r="DY10" t="n">
         <v>0</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0</v>
+        <v>-0.0196819452615177</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0205306123679351</v>
+        <v>0.004438258455498592</v>
       </c>
       <c r="EB10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.02209262895398265</v>
+        <v>0</v>
       </c>
       <c r="ED10" t="n">
         <v>-0</v>
@@ -5961,52 +5961,52 @@
         <v>-0</v>
       </c>
       <c r="EF10" t="n">
-        <v>-0.1283936073748925</v>
+        <v>0</v>
       </c>
       <c r="EG10" t="n">
-        <v>0</v>
+        <v>-0.07101316737130832</v>
       </c>
       <c r="EH10" t="n">
         <v>0</v>
       </c>
       <c r="EI10" t="n">
-        <v>-0</v>
+        <v>0.0433171201577944</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.03014919985646632</v>
+        <v>0.09315084938409131</v>
       </c>
       <c r="EK10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL10" t="n">
-        <v>-0.02525449654871232</v>
+        <v>-0</v>
       </c>
       <c r="EM10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO10" t="n">
-        <v>-0.01383409243741392</v>
+        <v>0</v>
       </c>
       <c r="EP10" t="n">
-        <v>0</v>
+        <v>-0.104554312603871</v>
       </c>
       <c r="EQ10" t="n">
         <v>-0</v>
       </c>
       <c r="ER10" t="n">
-        <v>0</v>
+        <v>-0.08423423363571388</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.07511312556519149</v>
+        <v>-0.02448844109790163</v>
       </c>
       <c r="ET10" t="n">
         <v>-0</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.004268492627310411</v>
+        <v>-0</v>
       </c>
       <c r="EV10" t="n">
         <v>0</v>
@@ -6015,25 +6015,25 @@
         <v>-0</v>
       </c>
       <c r="EX10" t="n">
-        <v>-0.06949244752950999</v>
+        <v>0</v>
       </c>
       <c r="EY10" t="n">
-        <v>0</v>
+        <v>-0.1002110786306688</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA10" t="n">
-        <v>-0</v>
+        <v>0.03407814338964078</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.02072023654102918</v>
+        <v>-0.0173960277136179</v>
       </c>
       <c r="FC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD10" t="n">
-        <v>7.599555959340557e-06</v>
+        <v>-0</v>
       </c>
       <c r="FE10" t="n">
         <v>0</v>
@@ -6042,108 +6042,108 @@
         <v>-0</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.06901956625176431</v>
+        <v>-0</v>
       </c>
       <c r="FH10" t="n">
-        <v>0</v>
+        <v>-0.01290260148865548</v>
       </c>
       <c r="FI10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0</v>
+        <v>0.07782985402148417</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.0004032117978523482</v>
+        <v>-0.007880217947628913</v>
       </c>
       <c r="FL10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.01891268130617291</v>
+        <v>0</v>
       </c>
       <c r="FN10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.01838107835396729</v>
+        <v>0</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0</v>
+        <v>0.004574938564115501</v>
       </c>
       <c r="FR10" t="n">
         <v>0</v>
       </c>
       <c r="FS10" t="n">
-        <v>0</v>
+        <v>0.1131974160164583</v>
       </c>
       <c r="FT10" t="n">
-        <v>-0.02805835302788202</v>
+        <v>0.02889058601804562</v>
       </c>
       <c r="FU10" t="n">
         <v>-0</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.04502111035763987</v>
+        <v>-0</v>
       </c>
       <c r="FW10" t="n">
         <v>0</v>
       </c>
       <c r="FX10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.02716501475835127</v>
+        <v>-0</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0</v>
+        <v>-0.01100635298369736</v>
       </c>
       <c r="GA10" t="n">
         <v>-0</v>
       </c>
       <c r="GB10" t="n">
-        <v>0</v>
+        <v>-0.05322568138151754</v>
       </c>
       <c r="GC10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE10" t="n">
-        <v>0.05171911579012147</v>
+        <v>-0</v>
       </c>
       <c r="GF10" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.3519830237703737</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0.2755258249281843</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.2008325900420863</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06717069762978091</v>
+        <v>-0.06492836816048551</v>
       </c>
       <c r="F11" t="n">
-        <v>-0</v>
+        <v>-0.204497133225938</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H11" t="n">
         <v>-0</v>
@@ -6152,25 +6152,25 @@
         <v>-0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3440384915534805</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>-0</v>
+        <v>0.2394854609441788</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.1624222674254783</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.09364122268727194</v>
+        <v>-0.00970790053260227</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>-0.1432068252116536</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q11" t="n">
         <v>-0</v>
@@ -6179,103 +6179,103 @@
         <v>-0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.01952931626243359</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-0</v>
+        <v>0.02571055178553928</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.05446635334179623</v>
+        <v>-0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-0.1375099236008737</v>
+        <v>-0.04328334879629617</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>0.002470851453459564</v>
       </c>
       <c r="Y11" t="n">
         <v>-0</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.03078913952069056</v>
+        <v>-0</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0</v>
+        <v>-0.01158050473226523</v>
       </c>
       <c r="AD11" t="n">
-        <v>-0.01199245384661481</v>
+        <v>-0</v>
       </c>
       <c r="AE11" t="n">
         <v>-0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.06647109191790385</v>
+        <v>0.001070190356738853</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>-0.03081253672139382</v>
       </c>
       <c r="AH11" t="n">
         <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ11" t="n">
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.09351124279742622</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>0.03161417360884488</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.04378291775652622</v>
+        <v>-0</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>-0.04535528151502195</v>
+        <v>-0.0183896328089442</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0</v>
+        <v>-0.06362833186277897</v>
       </c>
       <c r="AQ11" t="n">
         <v>-0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.2061143886822508</v>
+        <v>-0</v>
       </c>
       <c r="AU11" t="n">
-        <v>0</v>
+        <v>0.2061149687676839</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.1949258801505543</v>
+        <v>-0</v>
       </c>
       <c r="AW11" t="n">
         <v>0</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.05178219589441135</v>
+        <v>-0.05133443669933167</v>
       </c>
       <c r="AY11" t="n">
-        <v>0</v>
+        <v>-0.1431815344385163</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0</v>
@@ -6287,76 +6287,76 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.06169212422481371</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0</v>
+        <v>0.07525200905589015</v>
       </c>
       <c r="BE11" t="n">
-        <v>-0.06546518059435007</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1166293244346362</v>
+        <v>-0.05893207595619136</v>
       </c>
       <c r="BH11" t="n">
-        <v>-0</v>
+        <v>-0.08903067774101013</v>
       </c>
       <c r="BI11" t="n">
         <v>0</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK11" t="n">
         <v>-0</v>
       </c>
       <c r="BL11" t="n">
-        <v>-0.01207570461419988</v>
+        <v>-0</v>
       </c>
       <c r="BM11" t="n">
-        <v>0</v>
+        <v>0.06008887002168575</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.0784832921112764</v>
+        <v>-0</v>
       </c>
       <c r="BO11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.1451895789536614</v>
+        <v>0.02767248257505334</v>
       </c>
       <c r="BQ11" t="n">
-        <v>-0</v>
+        <v>0.01948861954788203</v>
       </c>
       <c r="BR11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
       </c>
       <c r="BT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.1251396525347148</v>
+        <v>-0</v>
       </c>
       <c r="BV11" t="n">
-        <v>0</v>
+        <v>0.0725249700044187</v>
       </c>
       <c r="BW11" t="n">
-        <v>-0.04310274560845431</v>
+        <v>0</v>
       </c>
       <c r="BX11" t="n">
         <v>0</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.00770822167938195</v>
+        <v>-0.01917982713248319</v>
       </c>
       <c r="BZ11" t="n">
-        <v>-0</v>
+        <v>-0.02567385600338756</v>
       </c>
       <c r="CA11" t="n">
         <v>-0</v>
@@ -6365,25 +6365,25 @@
         <v>-0</v>
       </c>
       <c r="CC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD11" t="n">
-        <v>-0.1006159559526438</v>
+        <v>0</v>
       </c>
       <c r="CE11" t="n">
-        <v>0</v>
+        <v>-0.05646449051392896</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.05232049521750702</v>
+        <v>0</v>
       </c>
       <c r="CG11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01265443195213152</v>
+        <v>-0.003965315100631192</v>
       </c>
       <c r="CI11" t="n">
-        <v>0</v>
+        <v>0.05767913336282289</v>
       </c>
       <c r="CJ11" t="n">
         <v>-0</v>
@@ -6395,49 +6395,49 @@
         <v>0</v>
       </c>
       <c r="CM11" t="n">
-        <v>-0.01488177325335477</v>
+        <v>0</v>
       </c>
       <c r="CN11" t="n">
-        <v>-0</v>
+        <v>-0.002615165114181482</v>
       </c>
       <c r="CO11" t="n">
-        <v>-0.02416706713038604</v>
+        <v>-0</v>
       </c>
       <c r="CP11" t="n">
         <v>0</v>
       </c>
       <c r="CQ11" t="n">
-        <v>-0.04740526169399607</v>
+        <v>-0.001456018823493317</v>
       </c>
       <c r="CR11" t="n">
-        <v>0</v>
+        <v>-0.0437817946841828</v>
       </c>
       <c r="CS11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT11" t="n">
         <v>-0</v>
       </c>
       <c r="CU11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV11" t="n">
-        <v>-0.09211329172947101</v>
+        <v>-0</v>
       </c>
       <c r="CW11" t="n">
-        <v>-0</v>
+        <v>-0.05101108946540956</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.05049776123266756</v>
+        <v>-0</v>
       </c>
       <c r="CY11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>-0.02459566246263938</v>
+        <v>0.002304887530023189</v>
       </c>
       <c r="DA11" t="n">
-        <v>-0</v>
+        <v>0.06143717171175294</v>
       </c>
       <c r="DB11" t="n">
         <v>0</v>
@@ -6449,130 +6449,130 @@
         <v>-0</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.00570636595342603</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>0</v>
+        <v>0.007061867433795261</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.03374662212371823</v>
+        <v>0</v>
       </c>
       <c r="DH11" t="n">
         <v>-0</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02509128220227935</v>
+        <v>0.0811188553538793</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-0</v>
+        <v>2.845195236035354e-05</v>
       </c>
       <c r="DK11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL11" t="n">
         <v>0</v>
       </c>
       <c r="DM11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN11" t="n">
-        <v>-0.001718725443241447</v>
+        <v>-0</v>
       </c>
       <c r="DO11" t="n">
-        <v>0</v>
+        <v>-0.02867783031109391</v>
       </c>
       <c r="DP11" t="n">
-        <v>-0.04744797548171987</v>
+        <v>0</v>
       </c>
       <c r="DQ11" t="n">
         <v>0</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.05513375032149583</v>
+        <v>0.01433278288697825</v>
       </c>
       <c r="DS11" t="n">
-        <v>-0</v>
+        <v>0.01105013427159111</v>
       </c>
       <c r="DT11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU11" t="n">
         <v>0</v>
       </c>
       <c r="DV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW11" t="n">
-        <v>-0.01488297532677893</v>
+        <v>-0</v>
       </c>
       <c r="DX11" t="n">
-        <v>-0</v>
+        <v>-0.05137517834268427</v>
       </c>
       <c r="DY11" t="n">
-        <v>-0.0032606898313175</v>
+        <v>0</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA11" t="n">
-        <v>-0.01537767682918572</v>
+        <v>0.02718044773268719</v>
       </c>
       <c r="EB11" t="n">
-        <v>-0</v>
+        <v>0.03947245291474771</v>
       </c>
       <c r="EC11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED11" t="n">
         <v>-0</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF11" t="n">
-        <v>-0.1544117412675497</v>
+        <v>0</v>
       </c>
       <c r="EG11" t="n">
-        <v>0</v>
+        <v>-0.05248015543422756</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.06662857393563182</v>
+        <v>0</v>
       </c>
       <c r="EI11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01584168916268323</v>
+        <v>0.01539468396701377</v>
       </c>
       <c r="EK11" t="n">
-        <v>0</v>
+        <v>0.06455462074961942</v>
       </c>
       <c r="EL11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO11" t="n">
-        <v>-0.05526399329763044</v>
+        <v>0</v>
       </c>
       <c r="EP11" t="n">
-        <v>0</v>
+        <v>-0.03434589067990546</v>
       </c>
       <c r="EQ11" t="n">
-        <v>-0.03456979401746633</v>
+        <v>-0</v>
       </c>
       <c r="ER11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES11" t="n">
-        <v>-0.01615440935668087</v>
+        <v>-0.01263472047024843</v>
       </c>
       <c r="ET11" t="n">
-        <v>-0</v>
+        <v>-0.01302188632892642</v>
       </c>
       <c r="EU11" t="n">
         <v>-0</v>
@@ -6581,25 +6581,25 @@
         <v>0</v>
       </c>
       <c r="EW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX11" t="n">
-        <v>-0.09253400455328561</v>
+        <v>0</v>
       </c>
       <c r="EY11" t="n">
-        <v>0</v>
+        <v>-0.04944928083076845</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.04561818925967251</v>
+        <v>0</v>
       </c>
       <c r="FA11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB11" t="n">
-        <v>-0.01741050462535541</v>
+        <v>0.00466098849454194</v>
       </c>
       <c r="FC11" t="n">
-        <v>-0</v>
+        <v>0.05740051153665914</v>
       </c>
       <c r="FD11" t="n">
         <v>-0</v>
@@ -6611,67 +6611,67 @@
         <v>0</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.06733309552615339</v>
+        <v>0</v>
       </c>
       <c r="FH11" t="n">
-        <v>-0</v>
+        <v>-0.01390280895665056</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.06550507458306687</v>
+        <v>-0</v>
       </c>
       <c r="FJ11" t="n">
         <v>-0</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.03632390367959762</v>
+        <v>0.005721239776736639</v>
       </c>
       <c r="FL11" t="n">
-        <v>0</v>
+        <v>0.03089961845139688</v>
       </c>
       <c r="FM11" t="n">
         <v>0</v>
       </c>
       <c r="FN11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO11" t="n">
         <v>0</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.002501069997966652</v>
+        <v>0</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0</v>
+        <v>0.004318561172450252</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.0296869115556719</v>
+        <v>-0</v>
       </c>
       <c r="FS11" t="n">
         <v>-0</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.02937598880235529</v>
+        <v>-0.02830880490512632</v>
       </c>
       <c r="FU11" t="n">
-        <v>0</v>
+        <v>0.03562895596549798</v>
       </c>
       <c r="FV11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.02731905019042081</v>
+        <v>-0</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0</v>
+        <v>0.0009116652555951593</v>
       </c>
       <c r="GA11" t="n">
-        <v>-0.03818727328016232</v>
+        <v>-0</v>
       </c>
       <c r="GB11" t="n">
         <v>-0</v>
@@ -6680,10 +6680,10 @@
         <v>0</v>
       </c>
       <c r="GD11" t="n">
-        <v>-0</v>
+        <v>-0.0119843347930833</v>
       </c>
       <c r="GE11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF11" t="n">
         <v>-0</v>
@@ -6694,25 +6694,25 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.2686096105316914</v>
+        <v>0</v>
       </c>
       <c r="B12" t="n">
-        <v>-0</v>
+        <v>0.3694532871327955</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0400282480593308</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>-0.1201493077321622</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.04570336205739751</v>
+        <v>-0.106078842256138</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.06317956264779863</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01521357561759846</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>-0</v>
@@ -6721,25 +6721,25 @@
         <v>-0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2613707699078061</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>-0</v>
+        <v>0.301358449371957</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.03549651416376768</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-0.07613095210577185</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.1142941909234098</v>
+        <v>-0.05791112078894675</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>-0.06611399102013746</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.009982312647185018</v>
+        <v>-0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -6748,133 +6748,133 @@
         <v>-0</v>
       </c>
       <c r="S12" t="n">
-        <v>0.01946783899382375</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>-0</v>
+        <v>0.07079111034847746</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.02526737677343895</v>
+        <v>-0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>-0.02017491081063709</v>
       </c>
       <c r="W12" t="n">
-        <v>-0.1000860747068614</v>
+        <v>0.08124882569074741</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>0.006748867212271283</v>
       </c>
       <c r="Y12" t="n">
-        <v>-0.07934683086641407</v>
+        <v>-0</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.01101710046380824</v>
+        <v>-0</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>0.04886617283242344</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.03716416410990414</v>
+        <v>-0</v>
       </c>
       <c r="AE12" t="n">
-        <v>-0</v>
+        <v>0.01998521909183749</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.01750015536071067</v>
+        <v>-0.02584883717397595</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>-0.01934232954904554</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.06595352177469985</v>
+        <v>-0</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.05132475519398162</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>0.01425278365764937</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.003396504135270025</v>
+        <v>-0</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>-0.05885032735386687</v>
       </c>
       <c r="AO12" t="n">
-        <v>-0.02439403456807372</v>
+        <v>-0.0596792208175272</v>
       </c>
       <c r="AP12" t="n">
-        <v>-0</v>
+        <v>-0.03734451094494778</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.01104047616941708</v>
+        <v>-0</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.1421723749188138</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.3238331730917484</v>
       </c>
       <c r="AV12" t="n">
-        <v>-0.03881364267865749</v>
+        <v>-0</v>
       </c>
       <c r="AW12" t="n">
-        <v>-0</v>
+        <v>-0.04324848198620739</v>
       </c>
       <c r="AX12" t="n">
-        <v>-0.0004748741758000575</v>
+        <v>0.02937239900335384</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>0.04375711516681704</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.04344348694954848</v>
+        <v>0</v>
       </c>
       <c r="BA12" t="n">
         <v>-0</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.06781812623699633</v>
+        <v>-0</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>0.05167348632288866</v>
       </c>
       <c r="BE12" t="n">
-        <v>-0.01415106971338376</v>
+        <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0</v>
+        <v>-0.07955093118622197</v>
       </c>
       <c r="BG12" t="n">
-        <v>-0.009313412739335508</v>
+        <v>-0.1116914058386765</v>
       </c>
       <c r="BH12" t="n">
-        <v>0</v>
+        <v>-0.08414606449034499</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.006958827479430258</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -6883,52 +6883,52 @@
         <v>-0</v>
       </c>
       <c r="BL12" t="n">
-        <v>-0.03654433992012254</v>
+        <v>-0</v>
       </c>
       <c r="BM12" t="n">
-        <v>0</v>
+        <v>0.08000416037114691</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02300333034917077</v>
+        <v>-0</v>
       </c>
       <c r="BO12" t="n">
-        <v>0</v>
+        <v>0.05586068237683024</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.07859354985937884</v>
+        <v>0.1194637593794258</v>
       </c>
       <c r="BQ12" t="n">
-        <v>-0</v>
+        <v>0.03031989054633144</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.01700994949237936</v>
+        <v>0</v>
       </c>
       <c r="BS12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT12" t="n">
         <v>-0</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.06811438831916981</v>
+        <v>0</v>
       </c>
       <c r="BV12" t="n">
-        <v>0</v>
+        <v>0.08673212658926806</v>
       </c>
       <c r="BW12" t="n">
-        <v>-0.006884199774753854</v>
+        <v>0</v>
       </c>
       <c r="BX12" t="n">
-        <v>0</v>
+        <v>0.004593398800621502</v>
       </c>
       <c r="BY12" t="n">
-        <v>-0.006636238647013147</v>
+        <v>0.0112214419673465</v>
       </c>
       <c r="BZ12" t="n">
-        <v>-0</v>
+        <v>0.006185778035645527</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.003392886923541378</v>
+        <v>-0</v>
       </c>
       <c r="CB12" t="n">
         <v>-0</v>
@@ -6937,52 +6937,52 @@
         <v>-0</v>
       </c>
       <c r="CD12" t="n">
-        <v>-0.06949573405487852</v>
+        <v>0</v>
       </c>
       <c r="CE12" t="n">
-        <v>0</v>
+        <v>-0.07796029241944803</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.01331567559718463</v>
+        <v>0</v>
       </c>
       <c r="CG12" t="n">
-        <v>-0</v>
+        <v>0.004703188963560567</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0127044945290034</v>
+        <v>-0.0003753740793287614</v>
       </c>
       <c r="CI12" t="n">
-        <v>0</v>
+        <v>0.03129531144653609</v>
       </c>
       <c r="CJ12" t="n">
-        <v>-0.01106731509879966</v>
+        <v>0</v>
       </c>
       <c r="CK12" t="n">
         <v>0</v>
       </c>
       <c r="CL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.008294840151019287</v>
+        <v>0</v>
       </c>
       <c r="CN12" t="n">
-        <v>-0</v>
+        <v>0.003379435663676963</v>
       </c>
       <c r="CO12" t="n">
-        <v>-0.005159992522529433</v>
+        <v>-0</v>
       </c>
       <c r="CP12" t="n">
-        <v>-0</v>
+        <v>-0.06312649354337084</v>
       </c>
       <c r="CQ12" t="n">
-        <v>-0.06841563623165195</v>
+        <v>-0.08108015070047044</v>
       </c>
       <c r="CR12" t="n">
-        <v>-0</v>
+        <v>-0.05087378597665723</v>
       </c>
       <c r="CS12" t="n">
-        <v>-0.03146581493207815</v>
+        <v>-0</v>
       </c>
       <c r="CT12" t="n">
         <v>-0</v>
@@ -6991,324 +6991,324 @@
         <v>0</v>
       </c>
       <c r="CV12" t="n">
-        <v>-0.063349126747617</v>
+        <v>0</v>
       </c>
       <c r="CW12" t="n">
-        <v>-0</v>
+        <v>-0.059855303919773</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.01783419085386842</v>
+        <v>-0</v>
       </c>
       <c r="CY12" t="n">
-        <v>0</v>
+        <v>0.03183717778404103</v>
       </c>
       <c r="CZ12" t="n">
-        <v>-0.01519215977111556</v>
+        <v>0.002623548317212002</v>
       </c>
       <c r="DA12" t="n">
-        <v>0</v>
+        <v>0.03268192620317573</v>
       </c>
       <c r="DB12" t="n">
-        <v>-0.003966457192558599</v>
+        <v>0</v>
       </c>
       <c r="DC12" t="n">
         <v>-0</v>
       </c>
       <c r="DD12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.003436117248390349</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>0</v>
+        <v>-0.0150351806050066</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.008034360814372601</v>
+        <v>0</v>
       </c>
       <c r="DH12" t="n">
-        <v>0</v>
+        <v>0.0564800070019654</v>
       </c>
       <c r="DI12" t="n">
-        <v>-0.001185803148283755</v>
+        <v>-0.005448230357230063</v>
       </c>
       <c r="DJ12" t="n">
-        <v>-0</v>
+        <v>0.02160291818655201</v>
       </c>
       <c r="DK12" t="n">
-        <v>-0.009433142718365015</v>
+        <v>-0</v>
       </c>
       <c r="DL12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02085478021101186</v>
+        <v>-0</v>
       </c>
       <c r="DO12" t="n">
-        <v>0</v>
+        <v>-0.0128089280286045</v>
       </c>
       <c r="DP12" t="n">
-        <v>-0.002697602376246454</v>
+        <v>0</v>
       </c>
       <c r="DQ12" t="n">
-        <v>-0</v>
+        <v>0.06238227727532547</v>
       </c>
       <c r="DR12" t="n">
-        <v>-0.008970288741263309</v>
+        <v>-0.02187132213573931</v>
       </c>
       <c r="DS12" t="n">
-        <v>0</v>
+        <v>0.02726149558088034</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.04469670743222606</v>
+        <v>-0</v>
       </c>
       <c r="DU12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV12" t="n">
         <v>0</v>
       </c>
       <c r="DW12" t="n">
-        <v>-0.0036441802783257</v>
+        <v>-0</v>
       </c>
       <c r="DX12" t="n">
-        <v>-0</v>
+        <v>-0.04829024479286884</v>
       </c>
       <c r="DY12" t="n">
-        <v>-0.01781198266288495</v>
+        <v>0</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0</v>
+        <v>-0.0241358802354509</v>
       </c>
       <c r="EA12" t="n">
-        <v>-0.007547591873952839</v>
+        <v>0.0342973578962124</v>
       </c>
       <c r="EB12" t="n">
-        <v>0</v>
+        <v>0.05845071095831052</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.004989211929396739</v>
+        <v>0</v>
       </c>
       <c r="ED12" t="n">
         <v>-0</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF12" t="n">
-        <v>-0.1140155062882809</v>
+        <v>0</v>
       </c>
       <c r="EG12" t="n">
-        <v>0</v>
+        <v>-0.08772061378131157</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.004261883906871992</v>
+        <v>-0</v>
       </c>
       <c r="EI12" t="n">
-        <v>-0</v>
+        <v>0.03882054561856284</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.01190097681166341</v>
+        <v>0.06614520598718032</v>
       </c>
       <c r="EK12" t="n">
-        <v>0</v>
+        <v>0.02208907225157403</v>
       </c>
       <c r="EL12" t="n">
-        <v>-0.02830087661789975</v>
+        <v>-0</v>
       </c>
       <c r="EM12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN12" t="n">
         <v>-0</v>
       </c>
       <c r="EO12" t="n">
-        <v>-0.02270655882317666</v>
+        <v>0</v>
       </c>
       <c r="EP12" t="n">
-        <v>0</v>
+        <v>-0.03981605130173743</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.0161625320156208</v>
+        <v>-0</v>
       </c>
       <c r="ER12" t="n">
-        <v>0</v>
+        <v>0.007158178357422127</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.04086425270303828</v>
+        <v>0.02468534606957337</v>
       </c>
       <c r="ET12" t="n">
-        <v>-0</v>
+        <v>0.03358515721009882</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.008364618051378843</v>
+        <v>0</v>
       </c>
       <c r="EV12" t="n">
         <v>0</v>
       </c>
       <c r="EW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX12" t="n">
-        <v>-0.06060576206064296</v>
+        <v>0</v>
       </c>
       <c r="EY12" t="n">
-        <v>0</v>
+        <v>-0.06065417263721548</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.01579425968877314</v>
+        <v>-0</v>
       </c>
       <c r="FA12" t="n">
-        <v>-0</v>
+        <v>0.004564047750212546</v>
       </c>
       <c r="FB12" t="n">
-        <v>-0.007530824116166902</v>
+        <v>0.01401243305891759</v>
       </c>
       <c r="FC12" t="n">
-        <v>-0</v>
+        <v>0.03741622161092956</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0.004725327725959881</v>
+        <v>0</v>
       </c>
       <c r="FE12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF12" t="n">
         <v>0</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.07051712722665333</v>
+        <v>0</v>
       </c>
       <c r="FH12" t="n">
-        <v>0</v>
+        <v>-0.02967019244927751</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03734210259201032</v>
+        <v>-0</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0</v>
+        <v>0.05619489250679095</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.05077453609994403</v>
+        <v>0.01414901746846079</v>
       </c>
       <c r="FL12" t="n">
-        <v>-0</v>
+        <v>-0.008732920427275265</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.01793039011602049</v>
+        <v>0</v>
       </c>
       <c r="FN12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.003841147030682641</v>
+        <v>0</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0</v>
+        <v>-0.004005238507743286</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.007976656962058112</v>
+        <v>0</v>
       </c>
       <c r="FS12" t="n">
-        <v>-0</v>
+        <v>0.01703143380890867</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.009967899215637994</v>
+        <v>-0.03725680590032083</v>
       </c>
       <c r="FU12" t="n">
-        <v>0</v>
+        <v>0.03919955839753179</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.005665157952338796</v>
+        <v>0</v>
       </c>
       <c r="FW12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.05412016406899627</v>
+        <v>-0</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0</v>
+        <v>0.04031895800977078</v>
       </c>
       <c r="GA12" t="n">
-        <v>-0.01478600127814669</v>
+        <v>-0</v>
       </c>
       <c r="GB12" t="n">
-        <v>0</v>
+        <v>-0.07569762397205471</v>
       </c>
       <c r="GC12" t="n">
         <v>-0</v>
       </c>
       <c r="GD12" t="n">
-        <v>0</v>
+        <v>-0.04165466825632142</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.03024457332408034</v>
+        <v>0</v>
       </c>
       <c r="GF12" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.1870535057448654</v>
+        <v>0</v>
       </c>
       <c r="B13" t="n">
-        <v>-0</v>
+        <v>0.3438116639870767</v>
       </c>
       <c r="C13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>-0.06668499094194343</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.05314347560250852</v>
+        <v>-0.0364752059208738</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03343702226821802</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.184056280021716</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-0</v>
+        <v>0.2323967045121962</v>
       </c>
       <c r="L13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-0.09179077263011975</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.08745255750903509</v>
+        <v>-0.04690605313107066</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P13" t="n">
-        <v>0.008148226172228483</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -7317,25 +7317,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00535767453150964</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>0.08384865396667288</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>0.04808717573136204</v>
       </c>
       <c r="W13" t="n">
-        <v>-0.03761538948502875</v>
+        <v>0.1302540369275459</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.05467553233697669</v>
+        <v>-0</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -7344,25 +7344,25 @@
         <v>-0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.03001346904342116</v>
+        <v>-0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>0.1021263351355602</v>
       </c>
       <c r="AD13" t="n">
         <v>-0</v>
       </c>
       <c r="AE13" t="n">
-        <v>-0</v>
+        <v>0.002319977227769498</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01908012578263262</v>
+        <v>-0.05504551930785918</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.04584227470027583</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
@@ -7371,160 +7371,160 @@
         <v>-0</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03406873242407736</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>-0.0440260401992733</v>
       </c>
       <c r="AM13" t="n">
         <v>-0</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>-0.05345836035298392</v>
       </c>
       <c r="AO13" t="n">
-        <v>-0.01233588934728</v>
+        <v>-0.02217558500385006</v>
       </c>
       <c r="AP13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.01316167973102379</v>
+        <v>-0</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.1073186878855607</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>0</v>
+        <v>0.3183908640638838</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AW13" t="n">
-        <v>-0</v>
+        <v>0.1359442842659188</v>
       </c>
       <c r="AX13" t="n">
-        <v>-0.01333856707278116</v>
+        <v>0.1518271900009334</v>
       </c>
       <c r="AY13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.02713663909338267</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>-0</v>
       </c>
       <c r="BB13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.04463443697828138</v>
+        <v>-0</v>
       </c>
       <c r="BD13" t="n">
-        <v>0</v>
+        <v>0.02185101578438996</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF13" t="n">
-        <v>0</v>
+        <v>-0.1623377606079976</v>
       </c>
       <c r="BG13" t="n">
-        <v>-0.003503845042980482</v>
+        <v>-0.1230685023028073</v>
       </c>
       <c r="BH13" t="n">
         <v>0</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.01877822902785134</v>
+        <v>0</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
-        <v>-0.03031624660560772</v>
+        <v>-0</v>
       </c>
       <c r="BM13" t="n">
-        <v>0</v>
+        <v>0.07898677758722253</v>
       </c>
       <c r="BN13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BO13" t="n">
-        <v>0</v>
+        <v>-0.007315093255475858</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.04157125468401954</v>
+        <v>0.1919122380428723</v>
       </c>
       <c r="BQ13" t="n">
         <v>-0</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.01395715943870549</v>
+        <v>0</v>
       </c>
       <c r="BS13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT13" t="n">
         <v>-0</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.04474302154887654</v>
+        <v>0</v>
       </c>
       <c r="BV13" t="n">
-        <v>0</v>
+        <v>0.09011057133532482</v>
       </c>
       <c r="BW13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX13" t="n">
-        <v>0</v>
+        <v>0.0357838536480021</v>
       </c>
       <c r="BY13" t="n">
-        <v>-0.009078093416346229</v>
+        <v>0.06454587293008848</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.005184526312814535</v>
+        <v>-0</v>
       </c>
       <c r="CB13" t="n">
         <v>-0</v>
       </c>
       <c r="CC13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD13" t="n">
-        <v>-0.05176558211088444</v>
+        <v>0</v>
       </c>
       <c r="CE13" t="n">
-        <v>0</v>
+        <v>-0.08206121575279821</v>
       </c>
       <c r="CF13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CG13" t="n">
-        <v>-0</v>
+        <v>-0.0203963756565792</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01169380870374418</v>
+        <v>-0.006300761843916369</v>
       </c>
       <c r="CI13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-0.0132620340223091</v>
+        <v>0</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -7533,79 +7533,79 @@
         <v>-0</v>
       </c>
       <c r="CM13" t="n">
-        <v>-0.008926956194852988</v>
+        <v>0</v>
       </c>
       <c r="CN13" t="n">
-        <v>-0</v>
+        <v>-0.02187097891290269</v>
       </c>
       <c r="CO13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP13" t="n">
-        <v>-0</v>
+        <v>-0.1317712049625057</v>
       </c>
       <c r="CQ13" t="n">
-        <v>-0.04706583843323166</v>
+        <v>-0.1063684947281441</v>
       </c>
       <c r="CR13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS13" t="n">
-        <v>-0.01895158450411793</v>
+        <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CV13" t="n">
-        <v>-0.04574063024270707</v>
+        <v>-0</v>
       </c>
       <c r="CW13" t="n">
-        <v>-0</v>
+        <v>-0.05614421835079308</v>
       </c>
       <c r="CX13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CY13" t="n">
-        <v>-0</v>
+        <v>0.0006052411601386537</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.003374054819932769</v>
+        <v>-0.01317283812819755</v>
       </c>
       <c r="DA13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB13" t="n">
-        <v>-0.007646928175938384</v>
+        <v>0</v>
       </c>
       <c r="DC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DD13" t="n">
         <v>0</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.002059091311020729</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>0</v>
+        <v>-0.04278183918028314</v>
       </c>
       <c r="DG13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DH13" t="n">
-        <v>0</v>
+        <v>0.03334621375761366</v>
       </c>
       <c r="DI13" t="n">
-        <v>-0.005104169158275456</v>
+        <v>0.02206517767788532</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK13" t="n">
-        <v>-0.01070586922063704</v>
+        <v>-0</v>
       </c>
       <c r="DL13" t="n">
         <v>0</v>
@@ -7614,79 +7614,79 @@
         <v>0</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0001834088910365105</v>
+        <v>-0</v>
       </c>
       <c r="DO13" t="n">
-        <v>0</v>
+        <v>-0.05080086482455457</v>
       </c>
       <c r="DP13" t="n">
         <v>0</v>
       </c>
       <c r="DQ13" t="n">
-        <v>-0</v>
+        <v>0.04777858819569205</v>
       </c>
       <c r="DR13" t="n">
-        <v>-0.02991445639507433</v>
+        <v>-0.04271040790145936</v>
       </c>
       <c r="DS13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0293589655851244</v>
+        <v>-0</v>
       </c>
       <c r="DU13" t="n">
         <v>-0</v>
       </c>
       <c r="DV13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW13" t="n">
-        <v>-0.002535752311797666</v>
+        <v>-0</v>
       </c>
       <c r="DX13" t="n">
-        <v>-0</v>
+        <v>-0.02947476765106043</v>
       </c>
       <c r="DY13" t="n">
         <v>0</v>
       </c>
       <c r="DZ13" t="n">
-        <v>-0</v>
+        <v>-0.03289909360897093</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.01485805836439495</v>
+        <v>-0.009759899830155542</v>
       </c>
       <c r="EB13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.002311797205709945</v>
+        <v>0</v>
       </c>
       <c r="ED13" t="n">
         <v>-0</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF13" t="n">
-        <v>-0.07532538759141066</v>
+        <v>0</v>
       </c>
       <c r="EG13" t="n">
-        <v>0</v>
+        <v>-0.07423666022869602</v>
       </c>
       <c r="EH13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EI13" t="n">
-        <v>-0</v>
+        <v>-0.009668036159286261</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.005190088296121402</v>
+        <v>0.08872154828900254</v>
       </c>
       <c r="EK13" t="n">
         <v>0</v>
       </c>
       <c r="EL13" t="n">
-        <v>-0.02819372487540027</v>
+        <v>-0</v>
       </c>
       <c r="EM13" t="n">
         <v>0</v>
@@ -7695,25 +7695,25 @@
         <v>-0</v>
       </c>
       <c r="EO13" t="n">
-        <v>-0.01175857546059475</v>
+        <v>0</v>
       </c>
       <c r="EP13" t="n">
-        <v>0</v>
+        <v>-0.02431342131128654</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ER13" t="n">
-        <v>0</v>
+        <v>0.0211258344564127</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.04755427146341923</v>
+        <v>0.02315041085613775</v>
       </c>
       <c r="ET13" t="n">
         <v>0</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.003598194959139309</v>
+        <v>0</v>
       </c>
       <c r="EV13" t="n">
         <v>0</v>
@@ -7722,132 +7722,132 @@
         <v>-0</v>
       </c>
       <c r="EX13" t="n">
-        <v>-0.04422232069859834</v>
+        <v>0</v>
       </c>
       <c r="EY13" t="n">
-        <v>0</v>
+        <v>-0.05731144194823702</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FA13" t="n">
-        <v>0</v>
+        <v>-0.03122942534572026</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.002218805484653781</v>
+        <v>0.006817645584025781</v>
       </c>
       <c r="FC13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0.007926101163918545</v>
+        <v>0</v>
       </c>
       <c r="FE13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FF13" t="n">
         <v>-0</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.04449069803355469</v>
+        <v>0</v>
       </c>
       <c r="FH13" t="n">
-        <v>0</v>
+        <v>-0.008675601325849625</v>
       </c>
       <c r="FI13" t="n">
         <v>-0</v>
       </c>
       <c r="FJ13" t="n">
-        <v>-0</v>
+        <v>0.001945876880924079</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.0346187130996196</v>
+        <v>0.02869794252845428</v>
       </c>
       <c r="FL13" t="n">
         <v>-0</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.009501356342190964</v>
+        <v>0</v>
       </c>
       <c r="FN13" t="n">
         <v>-0</v>
       </c>
       <c r="FO13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.0007448840314099133</v>
+        <v>0</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0</v>
+        <v>-0.002210654611916264</v>
       </c>
       <c r="FR13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS13" t="n">
-        <v>-0</v>
+        <v>0.02217272212118767</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.003018452084525886</v>
+        <v>-0.004905419685142409</v>
       </c>
       <c r="FU13" t="n">
         <v>-0</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.001795256668351111</v>
+        <v>0</v>
       </c>
       <c r="FW13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX13" t="n">
         <v>0</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.02531411782738074</v>
+        <v>-0</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0</v>
+        <v>0.01287889391507899</v>
       </c>
       <c r="GA13" t="n">
         <v>-0</v>
       </c>
       <c r="GB13" t="n">
-        <v>0</v>
+        <v>-0.1154313790071256</v>
       </c>
       <c r="GC13" t="n">
         <v>-0</v>
       </c>
       <c r="GD13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.01968439432612867</v>
+        <v>0</v>
       </c>
       <c r="GF13" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.4035618551966523</v>
+        <v>-0</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-0.3315543892809102</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6376137256767257</v>
+        <v>-0</v>
       </c>
       <c r="D14" t="n">
         <v>-0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1161152726343686</v>
+        <v>0.07666755896090115</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.033044029201602</v>
       </c>
       <c r="G14" t="n">
         <v>-0</v>
@@ -7856,25 +7856,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.4329195538138631</v>
+        <v>-0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>-0.2935583711115533</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7089323361839115</v>
+        <v>-0</v>
       </c>
       <c r="M14" t="n">
         <v>-0</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1830920674337206</v>
+        <v>-0.07009031831491096</v>
       </c>
       <c r="O14" t="n">
-        <v>-0</v>
+        <v>0.8574417820790873</v>
       </c>
       <c r="P14" t="n">
         <v>-0</v>
@@ -7886,22 +7886,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-0.0339102447808431</v>
+        <v>-0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-0.005335767159138302</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08203362399935021</v>
+        <v>-0</v>
       </c>
       <c r="V14" t="n">
         <v>-0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1941321050452416</v>
+        <v>0.1604568618313796</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.1492988004105616</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -7910,25 +7910,25 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.02961535411551807</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>-0.01367738674115263</v>
       </c>
       <c r="AD14" t="n">
-        <v>-0.002444184699257734</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>-0.04522505676168503</v>
+        <v>0.04846916225135422</v>
       </c>
       <c r="AG14" t="n">
-        <v>-0</v>
+        <v>0.03838207396274902</v>
       </c>
       <c r="AH14" t="n">
         <v>-0</v>
@@ -7937,28 +7937,28 @@
         <v>-0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>-0.1358899503350648</v>
+        <v>-0</v>
       </c>
       <c r="AL14" t="n">
-        <v>-0</v>
+        <v>-0.03474040686563112</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.09616079781420141</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
         <v>-0</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.06053928693148964</v>
+        <v>-0.0224477170635593</v>
       </c>
       <c r="AP14" t="n">
-        <v>0</v>
+        <v>0.1700032004544386</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR14" t="n">
         <v>-0</v>
@@ -7967,79 +7967,79 @@
         <v>-0</v>
       </c>
       <c r="AT14" t="n">
-        <v>-0.1966895766869939</v>
+        <v>-0</v>
       </c>
       <c r="AU14" t="n">
-        <v>-0</v>
+        <v>-0.2221876145571115</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.4272185705672964</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
         <v>-0</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.1716617355102366</v>
+        <v>0.2734928770113581</v>
       </c>
       <c r="AY14" t="n">
-        <v>-0</v>
+        <v>0.7825007548973365</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
       </c>
       <c r="BB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC14" t="n">
-        <v>-0.06430451600230722</v>
+        <v>-0</v>
       </c>
       <c r="BD14" t="n">
-        <v>0</v>
+        <v>-0.1171302075292977</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.099589789087662</v>
+        <v>-0</v>
       </c>
       <c r="BF14" t="n">
         <v>-0</v>
       </c>
       <c r="BG14" t="n">
-        <v>-0.2487320758853074</v>
+        <v>0.05348463471216348</v>
       </c>
       <c r="BH14" t="n">
-        <v>0</v>
+        <v>0.1865724259514154</v>
       </c>
       <c r="BI14" t="n">
         <v>-0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.05938201554442409</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>-0</v>
+        <v>-0.1720882433597597</v>
       </c>
       <c r="BN14" t="n">
-        <v>-0.1260347853237924</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>-0</v>
       </c>
       <c r="BP14" t="n">
-        <v>-0.2668671780202982</v>
+        <v>-0.05748596741152587</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0</v>
+        <v>0.08571816072910454</v>
       </c>
       <c r="BR14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS14" t="n">
         <v>-0</v>
@@ -8048,22 +8048,22 @@
         <v>-0</v>
       </c>
       <c r="BU14" t="n">
-        <v>-0.2009754870237375</v>
+        <v>-0</v>
       </c>
       <c r="BV14" t="n">
-        <v>-0</v>
+        <v>-0.1087602545934374</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.1797642000335577</v>
+        <v>-0</v>
       </c>
       <c r="BX14" t="n">
         <v>-0</v>
       </c>
       <c r="BY14" t="n">
-        <v>-0.01151885205112118</v>
+        <v>0.09823411546148268</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0</v>
+        <v>0.2721891536069246</v>
       </c>
       <c r="CA14" t="n">
         <v>0</v>
@@ -8075,22 +8075,22 @@
         <v>0</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.1435759116316105</v>
+        <v>-0</v>
       </c>
       <c r="CE14" t="n">
-        <v>-0</v>
+        <v>0.07861483346028969</v>
       </c>
       <c r="CF14" t="n">
-        <v>-0.1330446319126052</v>
+        <v>-0</v>
       </c>
       <c r="CG14" t="n">
         <v>-0</v>
       </c>
       <c r="CH14" t="n">
-        <v>-0.04941542825283567</v>
+        <v>-0.05135513785207683</v>
       </c>
       <c r="CI14" t="n">
-        <v>-0</v>
+        <v>-0.2043129677907541</v>
       </c>
       <c r="CJ14" t="n">
         <v>0</v>
@@ -8099,28 +8099,28 @@
         <v>-0</v>
       </c>
       <c r="CL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.009204782162926641</v>
+        <v>-0</v>
       </c>
       <c r="CN14" t="n">
-        <v>0</v>
+        <v>-0.0514453918371791</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.06423375206486726</v>
+        <v>0</v>
       </c>
       <c r="CP14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.1038164467898735</v>
+        <v>-0.2593940484279468</v>
       </c>
       <c r="CR14" t="n">
-        <v>0</v>
+        <v>-0.03063390755282392</v>
       </c>
       <c r="CS14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT14" t="n">
         <v>0</v>
@@ -8129,49 +8129,49 @@
         <v>0</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.1372316376278165</v>
+        <v>0</v>
       </c>
       <c r="CW14" t="n">
-        <v>0</v>
+        <v>0.05908299028522825</v>
       </c>
       <c r="CX14" t="n">
-        <v>-0.1183333728058876</v>
+        <v>-0</v>
       </c>
       <c r="CY14" t="n">
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.05015285760683442</v>
+        <v>-0.03623008007098741</v>
       </c>
       <c r="DA14" t="n">
-        <v>0</v>
+        <v>-0.2062664070779253</v>
       </c>
       <c r="DB14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
       </c>
       <c r="DD14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.02774727850079229</v>
+        <v>-0</v>
       </c>
       <c r="DF14" t="n">
-        <v>-0</v>
+        <v>0.04141135020070766</v>
       </c>
       <c r="DG14" t="n">
-        <v>-0.1565433370668858</v>
+        <v>0</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
       </c>
       <c r="DI14" t="n">
-        <v>-0.02886250519401868</v>
+        <v>-0.0905901842875516</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0</v>
+        <v>-0.07402491111291939</v>
       </c>
       <c r="DK14" t="n">
         <v>0</v>
@@ -8180,25 +8180,25 @@
         <v>-0</v>
       </c>
       <c r="DM14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.002525111520498352</v>
+        <v>0</v>
       </c>
       <c r="DO14" t="n">
-        <v>-0</v>
+        <v>-0.02820244492951384</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.05888342272804467</v>
+        <v>-0</v>
       </c>
       <c r="DQ14" t="n">
         <v>-0</v>
       </c>
       <c r="DR14" t="n">
-        <v>-0.1835831904319682</v>
+        <v>-0.1019373597298211</v>
       </c>
       <c r="DS14" t="n">
-        <v>0</v>
+        <v>-0.08235226720640965</v>
       </c>
       <c r="DT14" t="n">
         <v>-0</v>
@@ -8207,55 +8207,55 @@
         <v>0</v>
       </c>
       <c r="DV14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.02447951003471785</v>
+        <v>0</v>
       </c>
       <c r="DX14" t="n">
-        <v>-0</v>
+        <v>0.08015565888284445</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.01486369045507602</v>
+        <v>0</v>
       </c>
       <c r="DZ14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.01785324450675431</v>
+        <v>-0.05666788756798959</v>
       </c>
       <c r="EB14" t="n">
-        <v>0</v>
+        <v>-0.1225630172305461</v>
       </c>
       <c r="EC14" t="n">
         <v>0</v>
       </c>
       <c r="ED14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE14" t="n">
         <v>-0</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.22670197493977</v>
+        <v>-0</v>
       </c>
       <c r="EG14" t="n">
-        <v>-0</v>
+        <v>0.05561377214507678</v>
       </c>
       <c r="EH14" t="n">
-        <v>-0.1574190688478013</v>
+        <v>0</v>
       </c>
       <c r="EI14" t="n">
         <v>-0</v>
       </c>
       <c r="EJ14" t="n">
-        <v>-0.05903874724851807</v>
+        <v>-0.02504866241739046</v>
       </c>
       <c r="EK14" t="n">
-        <v>-0</v>
+        <v>-0.1211240756501744</v>
       </c>
       <c r="EL14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EM14" t="n">
         <v>-0</v>
@@ -8264,22 +8264,22 @@
         <v>0</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.05716423834178478</v>
+        <v>-0</v>
       </c>
       <c r="EP14" t="n">
-        <v>-0</v>
+        <v>0.01483852739103692</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.0736775905895841</v>
+        <v>0</v>
       </c>
       <c r="ER14" t="n">
         <v>-0</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.07623849220044783</v>
+        <v>-0.0317136911513799</v>
       </c>
       <c r="ET14" t="n">
-        <v>0</v>
+        <v>-0.01109326151239741</v>
       </c>
       <c r="EU14" t="n">
         <v>0</v>
@@ -8288,115 +8288,115 @@
         <v>-0</v>
       </c>
       <c r="EW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.1448148628459108</v>
+        <v>-0</v>
       </c>
       <c r="EY14" t="n">
-        <v>-0</v>
+        <v>0.0369122329486032</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.1246164964231661</v>
+        <v>0</v>
       </c>
       <c r="FA14" t="n">
         <v>-0</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.02787783990446913</v>
+        <v>-0.0647371640167072</v>
       </c>
       <c r="FC14" t="n">
-        <v>0</v>
+        <v>-0.1767849880194736</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE14" t="n">
         <v>-0</v>
       </c>
       <c r="FF14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.1104653423433744</v>
+        <v>-0</v>
       </c>
       <c r="FH14" t="n">
-        <v>0</v>
+        <v>-0.04842237741095196</v>
       </c>
       <c r="FI14" t="n">
-        <v>-0.1551591195238591</v>
+        <v>-0</v>
       </c>
       <c r="FJ14" t="n">
         <v>0</v>
       </c>
       <c r="FK14" t="n">
-        <v>-0.09663145007921578</v>
+        <v>-0.01737408666937787</v>
       </c>
       <c r="FL14" t="n">
-        <v>-0</v>
+        <v>-0.1552452505490127</v>
       </c>
       <c r="FM14" t="n">
         <v>-0</v>
       </c>
       <c r="FN14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO14" t="n">
         <v>-0</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.0003694368315038177</v>
+        <v>-0</v>
       </c>
       <c r="FQ14" t="n">
-        <v>-0</v>
+        <v>-0.005672900845261564</v>
       </c>
       <c r="FR14" t="n">
-        <v>-0.06407087110630691</v>
+        <v>-0</v>
       </c>
       <c r="FS14" t="n">
         <v>0</v>
       </c>
       <c r="FT14" t="n">
-        <v>2.387910360651698e-05</v>
+        <v>0.008225056864448643</v>
       </c>
       <c r="FU14" t="n">
-        <v>-0</v>
+        <v>-0.2052803311436839</v>
       </c>
       <c r="FV14" t="n">
         <v>0</v>
       </c>
       <c r="FW14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX14" t="n">
         <v>-0</v>
       </c>
       <c r="FY14" t="n">
-        <v>-0.005044001468847438</v>
+        <v>0</v>
       </c>
       <c r="FZ14" t="n">
-        <v>-0</v>
+        <v>-0.06256832481173993</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.09799985293161156</v>
+        <v>0</v>
       </c>
       <c r="GB14" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GC14" t="n">
         <v>-0</v>
       </c>
       <c r="GD14" t="n">
-        <v>0</v>
+        <v>0.00233280559055606</v>
       </c>
       <c r="GE14" t="n">
         <v>-0</v>
       </c>
       <c r="GF14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG14" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15">
@@ -8404,73 +8404,73 @@
         <v>0</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.666877792282639</v>
       </c>
       <c r="C15" t="n">
-        <v>1.241250379385833</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2016184713885034</v>
+        <v>-0.01734619152356717</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.832647884736646</v>
       </c>
       <c r="G15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I15" t="n">
-        <v>-1.006218621665927</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>0.5830538301467535</v>
       </c>
       <c r="L15" t="n">
-        <v>1.45447439243728</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0.5804532145360867</v>
+        <v>0.03681076055061933</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.6807683665932025</v>
       </c>
       <c r="P15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R15" t="n">
-        <v>-1.082893582200921</v>
+        <v>-0</v>
       </c>
       <c r="S15" t="n">
         <v>-0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>0.05347593031280914</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04586260880954273</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>-0.1178439953737072</v>
+        <v>-0.05489386199670537</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>-0.1131082735367728</v>
       </c>
       <c r="Y15" t="n">
         <v>-0</v>
@@ -8479,52 +8479,52 @@
         <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>-0.1082060736619155</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>0.1221656106063273</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.1044108088957662</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
         <v>-0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0702465403269277</v>
+        <v>0.05399033860117941</v>
       </c>
       <c r="AG15" t="n">
-        <v>-0</v>
+        <v>0.06211675020189908</v>
       </c>
       <c r="AH15" t="n">
         <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2303450386464214</v>
+        <v>-0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0</v>
+        <v>0.05753555440308916</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.2211355666591181</v>
+        <v>-0</v>
       </c>
       <c r="AN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.1329405569919622</v>
+        <v>0.06692468641435227</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0</v>
+        <v>-0.1510550103319466</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
@@ -8533,52 +8533,52 @@
         <v>-0</v>
       </c>
       <c r="AS15" t="n">
-        <v>-0.01423950141271801</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU15" t="n">
-        <v>-0</v>
+        <v>0.4012210113325229</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.712771895512548</v>
+        <v>-0</v>
       </c>
       <c r="AW15" t="n">
         <v>-0</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.07988846941570972</v>
+        <v>0.01306373595801226</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0</v>
+        <v>-0.5503145890794698</v>
       </c>
       <c r="AZ15" t="n">
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB15" t="n">
-        <v>-0.4044481816142921</v>
+        <v>0</v>
       </c>
       <c r="BC15" t="n">
         <v>0</v>
       </c>
       <c r="BD15" t="n">
-        <v>0</v>
+        <v>0.1735334416913395</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.3539434473069501</v>
+        <v>0</v>
       </c>
       <c r="BF15" t="n">
         <v>0</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.04977866804600264</v>
+        <v>-0.1067608278672856</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>-0.1680232339083514</v>
       </c>
       <c r="BI15" t="n">
         <v>-0</v>
@@ -8587,79 +8587,79 @@
         <v>-0</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.2519927142922068</v>
+        <v>-0</v>
       </c>
       <c r="BL15" t="n">
         <v>-0</v>
       </c>
       <c r="BM15" t="n">
-        <v>0</v>
+        <v>0.1556789339865939</v>
       </c>
       <c r="BN15" t="n">
-        <v>-0.2885350157830774</v>
+        <v>-0</v>
       </c>
       <c r="BO15" t="n">
         <v>-0</v>
       </c>
       <c r="BP15" t="n">
-        <v>-0.307267823547957</v>
+        <v>-0.0146194061496221</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0</v>
+        <v>-0.05649260644983728</v>
       </c>
       <c r="BR15" t="n">
         <v>-0</v>
       </c>
       <c r="BS15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.1399303505560169</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV15" t="n">
-        <v>0</v>
+        <v>0.2012630801908264</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.3745136460494132</v>
+        <v>0</v>
       </c>
       <c r="BX15" t="n">
         <v>-0</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.01275369488450088</v>
+        <v>-0.0133257623008405</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0</v>
+        <v>-0.2780819243863177</v>
       </c>
       <c r="CA15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC15" t="n">
-        <v>-0.4369802563512211</v>
+        <v>0</v>
       </c>
       <c r="CD15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CE15" t="n">
-        <v>-0</v>
+        <v>-0.1223278527839813</v>
       </c>
       <c r="CF15" t="n">
-        <v>-0.2291357630618253</v>
+        <v>0</v>
       </c>
       <c r="CG15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CH15" t="n">
-        <v>-0.07958302711302974</v>
+        <v>-0.005254409864869247</v>
       </c>
       <c r="CI15" t="n">
-        <v>-0</v>
+        <v>0.1166734183213457</v>
       </c>
       <c r="CJ15" t="n">
         <v>-0</v>
@@ -8668,52 +8668,52 @@
         <v>0</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.1304413540297892</v>
+        <v>0</v>
       </c>
       <c r="CM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CN15" t="n">
-        <v>-0</v>
+        <v>-0.03203105746107171</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.004643271455117589</v>
+        <v>0</v>
       </c>
       <c r="CP15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.1204279251857751</v>
+        <v>0.05774787397121428</v>
       </c>
       <c r="CR15" t="n">
-        <v>-0</v>
+        <v>-0.03359273767830079</v>
       </c>
       <c r="CS15" t="n">
         <v>-0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU15" t="n">
-        <v>-0.1143252792113953</v>
+        <v>0</v>
       </c>
       <c r="CV15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW15" t="n">
-        <v>-0</v>
+        <v>-0.1011671876862124</v>
       </c>
       <c r="CX15" t="n">
-        <v>-0.1999629684482595</v>
+        <v>-0</v>
       </c>
       <c r="CY15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.01073342844916617</v>
+        <v>-0.02000480567697621</v>
       </c>
       <c r="DA15" t="n">
-        <v>0</v>
+        <v>0.1152215963757141</v>
       </c>
       <c r="DB15" t="n">
         <v>0</v>
@@ -8722,25 +8722,25 @@
         <v>-0</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.1534637072120688</v>
+        <v>-0</v>
       </c>
       <c r="DE15" t="n">
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>-0</v>
+        <v>-0.1182314721727722</v>
       </c>
       <c r="DG15" t="n">
-        <v>-0.2727702626344473</v>
+        <v>-0</v>
       </c>
       <c r="DH15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DI15" t="n">
-        <v>-0.01686372288127692</v>
+        <v>0.0926421827238085</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0</v>
+        <v>0.2106009833430011</v>
       </c>
       <c r="DK15" t="n">
         <v>0</v>
@@ -8749,25 +8749,25 @@
         <v>0</v>
       </c>
       <c r="DM15" t="n">
-        <v>-0.09873314319933166</v>
+        <v>0</v>
       </c>
       <c r="DN15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO15" t="n">
-        <v>-0</v>
+        <v>-0.0650262641083721</v>
       </c>
       <c r="DP15" t="n">
-        <v>-0.07438175008789975</v>
+        <v>0</v>
       </c>
       <c r="DQ15" t="n">
         <v>0</v>
       </c>
       <c r="DR15" t="n">
-        <v>-0.03534672667299329</v>
+        <v>0.01764735801618293</v>
       </c>
       <c r="DS15" t="n">
-        <v>-0</v>
+        <v>0.09823997440730246</v>
       </c>
       <c r="DT15" t="n">
         <v>0</v>
@@ -8776,25 +8776,25 @@
         <v>0</v>
       </c>
       <c r="DV15" t="n">
-        <v>-0.07353114129232963</v>
+        <v>0</v>
       </c>
       <c r="DW15" t="n">
         <v>-0</v>
       </c>
       <c r="DX15" t="n">
-        <v>0</v>
+        <v>-0.06208792487795206</v>
       </c>
       <c r="DY15" t="n">
-        <v>-0.1604592153328531</v>
+        <v>0</v>
       </c>
       <c r="DZ15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.06011196744378967</v>
+        <v>0.05390000122820674</v>
       </c>
       <c r="EB15" t="n">
-        <v>-0</v>
+        <v>0.1122000894311024</v>
       </c>
       <c r="EC15" t="n">
         <v>-0</v>
@@ -8803,133 +8803,133 @@
         <v>-0</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.08649526349311006</v>
+        <v>0</v>
       </c>
       <c r="EF15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG15" t="n">
-        <v>-0</v>
+        <v>-0.07026254395707772</v>
       </c>
       <c r="EH15" t="n">
-        <v>-0.2789288098875082</v>
+        <v>0</v>
       </c>
       <c r="EI15" t="n">
         <v>0</v>
       </c>
       <c r="EJ15" t="n">
-        <v>-0.2191009743564345</v>
+        <v>0.03001384433022367</v>
       </c>
       <c r="EK15" t="n">
-        <v>-0</v>
+        <v>0.003749114743894364</v>
       </c>
       <c r="EL15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN15" t="n">
-        <v>-0.08166474518125197</v>
+        <v>-0</v>
       </c>
       <c r="EO15" t="n">
         <v>0</v>
       </c>
       <c r="EP15" t="n">
-        <v>0</v>
+        <v>0.04986972815706415</v>
       </c>
       <c r="EQ15" t="n">
-        <v>-0.08623444354081346</v>
+        <v>0</v>
       </c>
       <c r="ER15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.04173495308156572</v>
+        <v>0.04334645757282828</v>
       </c>
       <c r="ET15" t="n">
-        <v>-0</v>
+        <v>-0.05738573424440058</v>
       </c>
       <c r="EU15" t="n">
         <v>-0</v>
       </c>
       <c r="EV15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.2356003546272637</v>
+        <v>-0</v>
       </c>
       <c r="EX15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EY15" t="n">
-        <v>0</v>
+        <v>-0.1014138461645648</v>
       </c>
       <c r="EZ15" t="n">
-        <v>-0.2233619225270963</v>
+        <v>0</v>
       </c>
       <c r="FA15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FB15" t="n">
-        <v>-0.06199764888437628</v>
+        <v>-0.003386850940089787</v>
       </c>
       <c r="FC15" t="n">
-        <v>-0</v>
+        <v>0.1088160320204838</v>
       </c>
       <c r="FD15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FE15" t="n">
         <v>0</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.2111297383005915</v>
+        <v>0</v>
       </c>
       <c r="FG15" t="n">
         <v>0</v>
       </c>
       <c r="FH15" t="n">
-        <v>-0</v>
+        <v>-0.03453703976720383</v>
       </c>
       <c r="FI15" t="n">
-        <v>-0.2334659882704628</v>
+        <v>-0</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.05272670271557267</v>
+        <v>-0.03300842387970353</v>
       </c>
       <c r="FL15" t="n">
-        <v>-0</v>
+        <v>0.1145182047420687</v>
       </c>
       <c r="FM15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN15" t="n">
         <v>0</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.01607870817924923</v>
+        <v>0</v>
       </c>
       <c r="FP15" t="n">
         <v>0</v>
       </c>
       <c r="FQ15" t="n">
-        <v>-0</v>
+        <v>-0.0108966448489025</v>
       </c>
       <c r="FR15" t="n">
-        <v>-0.1117146889328761</v>
+        <v>0</v>
       </c>
       <c r="FS15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.1885810840568201</v>
+        <v>0.140430721209814</v>
       </c>
       <c r="FU15" t="n">
-        <v>0</v>
+        <v>0.1777522919048</v>
       </c>
       <c r="FV15" t="n">
         <v>-0</v>
@@ -8938,78 +8938,78 @@
         <v>0</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.1693491699645522</v>
+        <v>0</v>
       </c>
       <c r="FY15" t="n">
         <v>-0</v>
       </c>
       <c r="FZ15" t="n">
-        <v>-0</v>
+        <v>-0.04727438391383657</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.2303357829004531</v>
+        <v>-0</v>
       </c>
       <c r="GB15" t="n">
         <v>-0</v>
       </c>
       <c r="GC15" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GD15" t="n">
-        <v>0</v>
+        <v>-0.1039745515608788</v>
       </c>
       <c r="GE15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF15" t="n">
         <v>0</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.06557747044274909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.2045139525627961</v>
+        <v>0</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.3815591499003186</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3640286590089847</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0</v>
+        <v>-0.04031820273067106</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.178345207728835</v>
+        <v>-0.1372862478133693</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.2018782274308891</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>-0</v>
+        <v>0.2435578500743352</v>
       </c>
       <c r="L16" t="n">
-        <v>0.3836146829344383</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-0</v>
+        <v>-0.05174992223808234</v>
       </c>
       <c r="N16" t="n">
-        <v>0.02348809241585406</v>
+        <v>-0.1157256571373122</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -9021,28 +9021,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.01596242118458868</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.07085902158143438</v>
       </c>
       <c r="U16" t="n">
-        <v>0.06869463354041722</v>
+        <v>-0</v>
       </c>
       <c r="V16" t="n">
-        <v>-0</v>
+        <v>-0.008882736592941261</v>
       </c>
       <c r="W16" t="n">
-        <v>0.08940224029027181</v>
+        <v>0.04507021695259513</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -9051,79 +9051,79 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0.00255513980684334</v>
+        <v>-0</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>0.03407889997012099</v>
       </c>
       <c r="AD16" t="n">
-        <v>-0.0624107229426498</v>
+        <v>-0</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>0.01273148610218255</v>
       </c>
       <c r="AF16" t="n">
-        <v>-0.07103869067513449</v>
+        <v>-0.01709980036681078</v>
       </c>
       <c r="AG16" t="n">
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ16" t="n">
         <v>-0</v>
       </c>
       <c r="AK16" t="n">
-        <v>-0.08330674782849479</v>
+        <v>0</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>0.001000983457054746</v>
       </c>
       <c r="AM16" t="n">
-        <v>0.06355684240926687</v>
+        <v>-0</v>
       </c>
       <c r="AN16" t="n">
-        <v>-0</v>
+        <v>-0.04944051060127548</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.007303737106262944</v>
+        <v>-0.06932520049972174</v>
       </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.1334939243154188</v>
+        <v>-0</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0</v>
+        <v>0.2604126056039317</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.201777227337612</v>
+        <v>-0</v>
       </c>
       <c r="AW16" t="n">
-        <v>-0</v>
+        <v>0.05322798495097165</v>
       </c>
       <c r="AX16" t="n">
-        <v>0.06655373251133979</v>
+        <v>0.03162657731251656</v>
       </c>
       <c r="AY16" t="n">
         <v>-0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA16" t="n">
         <v>-0</v>
@@ -9132,154 +9132,154 @@
         <v>-0</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0.05370205441138085</v>
+        <v>0</v>
       </c>
       <c r="BD16" t="n">
-        <v>0</v>
+        <v>0.02234415291684705</v>
       </c>
       <c r="BE16" t="n">
-        <v>0.08495434804976479</v>
+        <v>0</v>
       </c>
       <c r="BF16" t="n">
-        <v>0</v>
+        <v>-0.08897726345042128</v>
       </c>
       <c r="BG16" t="n">
-        <v>-0.1829016569237571</v>
+        <v>-0.1265616280370284</v>
       </c>
       <c r="BH16" t="n">
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BK16" t="n">
         <v>0</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.04148319202585963</v>
+        <v>-0</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.09905711066796725</v>
       </c>
       <c r="BN16" t="n">
-        <v>-0.05769246188563237</v>
+        <v>0</v>
       </c>
       <c r="BO16" t="n">
-        <v>0</v>
+        <v>0.03361156205481524</v>
       </c>
       <c r="BP16" t="n">
-        <v>-0.08220804700460743</v>
+        <v>0.1060862496961958</v>
       </c>
       <c r="BQ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BR16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS16" t="n">
         <v>-0</v>
       </c>
       <c r="BT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BU16" t="n">
-        <v>-0.1038540942648629</v>
+        <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0</v>
+        <v>0.1318263427938593</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.129976717772356</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>-0</v>
+        <v>0.02683384308305879</v>
       </c>
       <c r="BY16" t="n">
-        <v>-0.05700556672170275</v>
+        <v>0.02556803323831543</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB16" t="n">
         <v>-0</v>
       </c>
       <c r="CC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.07927645895833138</v>
+        <v>0</v>
       </c>
       <c r="CE16" t="n">
-        <v>-0</v>
+        <v>-0.06842268743063633</v>
       </c>
       <c r="CF16" t="n">
-        <v>-0.05993781773008204</v>
+        <v>0</v>
       </c>
       <c r="CG16" t="n">
-        <v>0</v>
+        <v>-0.007370990906041244</v>
       </c>
       <c r="CH16" t="n">
-        <v>-0.008832350674220767</v>
+        <v>-0.00174222058358812</v>
       </c>
       <c r="CI16" t="n">
         <v>-0</v>
       </c>
       <c r="CJ16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CK16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM16" t="n">
-        <v>0.06942923817867627</v>
+        <v>0</v>
       </c>
       <c r="CN16" t="n">
-        <v>0</v>
+        <v>0.001543126283749217</v>
       </c>
       <c r="CO16" t="n">
-        <v>-0.0270275612252047</v>
+        <v>-0</v>
       </c>
       <c r="CP16" t="n">
-        <v>-0</v>
+        <v>-0.03297968427095651</v>
       </c>
       <c r="CQ16" t="n">
-        <v>0.04694349267274449</v>
+        <v>-0.08622357198756364</v>
       </c>
       <c r="CR16" t="n">
         <v>0</v>
       </c>
       <c r="CS16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV16" t="n">
-        <v>0.0883500589548244</v>
+        <v>-0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0</v>
+        <v>-0.04864314265208998</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.06090014328353884</v>
+        <v>-0</v>
       </c>
       <c r="CY16" t="n">
-        <v>-0</v>
+        <v>0.008126848658402783</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.04017272680985468</v>
+        <v>-0.005188538148519289</v>
       </c>
       <c r="DA16" t="n">
         <v>0</v>
@@ -9288,52 +9288,52 @@
         <v>0</v>
       </c>
       <c r="DC16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD16" t="n">
         <v>0</v>
       </c>
       <c r="DE16" t="n">
-        <v>0.03192654407197529</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="n">
-        <v>-0</v>
+        <v>-0.06851578783708522</v>
       </c>
       <c r="DG16" t="n">
-        <v>-0.01806387145174362</v>
+        <v>0</v>
       </c>
       <c r="DH16" t="n">
-        <v>0</v>
+        <v>0.05839160801293795</v>
       </c>
       <c r="DI16" t="n">
-        <v>-0.05221793877510372</v>
+        <v>0.03828391387821059</v>
       </c>
       <c r="DJ16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM16" t="n">
         <v>0</v>
       </c>
       <c r="DN16" t="n">
-        <v>-0.03574473965862891</v>
+        <v>-0</v>
       </c>
       <c r="DO16" t="n">
-        <v>-0</v>
+        <v>-0.03758317981213508</v>
       </c>
       <c r="DP16" t="n">
-        <v>0.04280964121899949</v>
+        <v>0</v>
       </c>
       <c r="DQ16" t="n">
-        <v>-0</v>
+        <v>0.06052461104964519</v>
       </c>
       <c r="DR16" t="n">
-        <v>-0.05992697219828216</v>
+        <v>-0.03833446326475788</v>
       </c>
       <c r="DS16" t="n">
         <v>0</v>
@@ -9342,52 +9342,52 @@
         <v>-0</v>
       </c>
       <c r="DU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV16" t="n">
         <v>0</v>
       </c>
       <c r="DW16" t="n">
-        <v>0.01359025223943058</v>
+        <v>-0</v>
       </c>
       <c r="DX16" t="n">
-        <v>0</v>
+        <v>-0.05442476172407507</v>
       </c>
       <c r="DY16" t="n">
-        <v>-0.02439563184346617</v>
+        <v>0</v>
       </c>
       <c r="DZ16" t="n">
-        <v>-0</v>
+        <v>0.01820028796003152</v>
       </c>
       <c r="EA16" t="n">
-        <v>-0.01100910508317682</v>
+        <v>0.03268597666039669</v>
       </c>
       <c r="EB16" t="n">
         <v>-0</v>
       </c>
       <c r="EC16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED16" t="n">
         <v>0</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EF16" t="n">
-        <v>0.08066930586282546</v>
+        <v>0</v>
       </c>
       <c r="EG16" t="n">
-        <v>0</v>
+        <v>-0.07101584452534648</v>
       </c>
       <c r="EH16" t="n">
-        <v>-0.08279742905326042</v>
+        <v>-0</v>
       </c>
       <c r="EI16" t="n">
-        <v>-0</v>
+        <v>0.003949653990835863</v>
       </c>
       <c r="EJ16" t="n">
-        <v>0.006573199670118749</v>
+        <v>0.06245577001313934</v>
       </c>
       <c r="EK16" t="n">
         <v>-0</v>
@@ -9399,76 +9399,76 @@
         <v>-0</v>
       </c>
       <c r="EN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EO16" t="n">
-        <v>0.03024263860047922</v>
+        <v>0</v>
       </c>
       <c r="EP16" t="n">
-        <v>-0</v>
+        <v>0.001217797657538762</v>
       </c>
       <c r="EQ16" t="n">
-        <v>0.03666756585527946</v>
+        <v>0</v>
       </c>
       <c r="ER16" t="n">
-        <v>-0</v>
+        <v>0.003610769204830474</v>
       </c>
       <c r="ES16" t="n">
-        <v>0.005677675582192863</v>
+        <v>-0.03441009876344996</v>
       </c>
       <c r="ET16" t="n">
         <v>0</v>
       </c>
       <c r="EU16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW16" t="n">
         <v>-0</v>
       </c>
       <c r="EX16" t="n">
-        <v>0.09286703523022666</v>
+        <v>0</v>
       </c>
       <c r="EY16" t="n">
-        <v>0</v>
+        <v>-0.05125216831541067</v>
       </c>
       <c r="EZ16" t="n">
-        <v>-0.05602675184587234</v>
+        <v>0</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0</v>
+        <v>-0.004213261535751177</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.01781165461242806</v>
+        <v>0.009170404765505871</v>
       </c>
       <c r="FC16" t="n">
         <v>-0</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FE16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG16" t="n">
-        <v>0.07332473916827877</v>
+        <v>0</v>
       </c>
       <c r="FH16" t="n">
-        <v>0</v>
+        <v>0.007312756378878193</v>
       </c>
       <c r="FI16" t="n">
-        <v>-0.05949982738567703</v>
+        <v>-0</v>
       </c>
       <c r="FJ16" t="n">
-        <v>0</v>
+        <v>0.02002750736334317</v>
       </c>
       <c r="FK16" t="n">
-        <v>0.1190283443578388</v>
+        <v>-0.05103089366939924</v>
       </c>
       <c r="FL16" t="n">
         <v>-0</v>
@@ -9477,55 +9477,55 @@
         <v>0</v>
       </c>
       <c r="FN16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO16" t="n">
         <v>0</v>
       </c>
       <c r="FP16" t="n">
-        <v>0.03544512470055917</v>
+        <v>0</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-0</v>
+        <v>0.04224751003496299</v>
       </c>
       <c r="FR16" t="n">
-        <v>-0.04254383308984559</v>
+        <v>-0</v>
       </c>
       <c r="FS16" t="n">
-        <v>0</v>
+        <v>0.06318730042829301</v>
       </c>
       <c r="FT16" t="n">
-        <v>0.05715131315041103</v>
+        <v>0.01581456421084561</v>
       </c>
       <c r="FU16" t="n">
         <v>-0</v>
       </c>
       <c r="FV16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW16" t="n">
         <v>0</v>
       </c>
       <c r="FX16" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FY16" t="n">
-        <v>0.03703591070992687</v>
+        <v>-0</v>
       </c>
       <c r="FZ16" t="n">
-        <v>-0</v>
+        <v>0.01914538716685472</v>
       </c>
       <c r="GA16" t="n">
-        <v>0.07800137298738401</v>
+        <v>-0</v>
       </c>
       <c r="GB16" t="n">
-        <v>-0</v>
+        <v>-0.04661998742545439</v>
       </c>
       <c r="GC16" t="n">
         <v>-0</v>
       </c>
       <c r="GD16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE16" t="n">
         <v>0</v>
